--- a/AllXrayFlashDistancesWithHubble.xlsx
+++ b/AllXrayFlashDistancesWithHubble.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kara/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648E835E-D139-2443-B16F-0D0931632A4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{333CF0EA-6EF0-C443-8CFB-3782CA5AA26C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="2400" windowWidth="28040" windowHeight="17440" xr2:uid="{CFD1F812-84B3-E148-A654-A2C50FB36FF8}"/>
+    <workbookView xWindow="280" yWindow="2220" windowWidth="30560" windowHeight="17440" activeTab="1" xr2:uid="{CFD1F812-84B3-E148-A654-A2C50FB36FF8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="197">
   <si>
     <t>Camera Direction</t>
   </si>
@@ -605,14 +606,38 @@
   </si>
   <si>
     <t>*Close</t>
+  </si>
+  <si>
+    <t>(Mpc)</t>
+  </si>
+  <si>
+    <t>Distance(pc)</t>
+  </si>
+  <si>
+    <t>Flux</t>
+  </si>
+  <si>
+    <t>Distance(Mpc)</t>
+  </si>
+  <si>
+    <t>R. Velocity(km/s)</t>
+  </si>
+  <si>
+    <t>Base Xray distance 800 pc</t>
+  </si>
+  <si>
+    <t>Base Xray distance 1200 pc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000000"/>
+    <numFmt numFmtId="167" formatCode="0.00000"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -690,7 +715,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -704,6 +729,9 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -755,14 +783,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Hubble</a:t>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Hubble Diagram (base distance 1000 pc)</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Diagram 1</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -826,183 +854,13 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$F$5:$F$44</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="40"/>
-                <c:pt idx="0">
-                  <c:v>457517.22576252383</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>96570.98040823068</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>447662.86396430881</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>300921.81440125225</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>494052.92993550265</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>525959.50787258195</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>567545.05383084249</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>580964.04783805925</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>342029.64095267473</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>292058.36242379481</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>510196.82910426275</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>544419.81298728392</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>431992.79216993018</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>163216.25554002749</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>361766.22490806138</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>541020.69663818902</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>439618.50834184897</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>210103.85119115902</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>236050.83863486096</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>472475.02780436364</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>338952.01105472969</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>562431.9311081518</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>536586.02596909483</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>210963.716287672</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>164180.10884114605</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>558686.50477657781</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>207586.00016589454</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>563697.24638815259</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>200030.51100224876</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>186596.15053868046</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>442047.35836334445</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>271924.42145810468</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>180091.315279445</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1771.1901833292832</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>42555.132308641354</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>435462.66953567875</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>324235.93091631349</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>128186.40158883638</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>464460.22072518291</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$G$5:$G$44</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B14D-314F-8BF1-91EC762E9A81}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
           <c:trendline>
             <c:spPr>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
-                <a:prstDash val="sysDot"/>
+                <a:prstDash val="solid"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -1016,18 +874,49 @@
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
-                <a:prstDash val="solid"/>
+                <a:prstDash val="sysDot"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:intercept val="0"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="6.3061228303989136E-2"/>
-                  <c:y val="0.29584143339371116"/>
+                  <c:x val="-8.604444276196244E-3"/>
+                  <c:y val="0.34877475962201387"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1050,7 +939,7 @@
                     </a:pPr>
                     <a:r>
                       <a:rPr lang="en-US" sz="1400" baseline="0"/>
-                      <a:t>y = 0.0037x - 11.352</a:t>
+                      <a:t>y = 3710.7x</a:t>
                     </a:r>
                     <a:endParaRPr lang="en-US" sz="1400"/>
                   </a:p>
@@ -1088,129 +977,129 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$F$5:$F$44</c:f>
+              <c:f>Sheet1!$G$5:$G$44</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>457517.22576252383</c:v>
+                  <c:v>0.45751722576252385</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>96570.98040823068</c:v>
+                  <c:v>9.6570980408230686E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>447662.86396430881</c:v>
+                  <c:v>0.44766286396430882</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>300921.81440125225</c:v>
+                  <c:v>0.30092181440125226</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>494052.92993550265</c:v>
+                  <c:v>0.49405292993550265</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>525959.50787258195</c:v>
+                  <c:v>0.52595950787258194</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>567545.05383084249</c:v>
+                  <c:v>0.56754505383084253</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>580964.04783805925</c:v>
+                  <c:v>0.58096404783805922</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>342029.64095267473</c:v>
+                  <c:v>0.34202964095267474</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>292058.36242379481</c:v>
+                  <c:v>0.29205836242379479</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>510196.82910426275</c:v>
+                  <c:v>0.51019682910426278</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>544419.81298728392</c:v>
+                  <c:v>0.54441981298728392</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>431992.79216993018</c:v>
+                  <c:v>0.4319927921699302</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>163216.25554002749</c:v>
+                  <c:v>0.1632162555400275</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>361766.22490806138</c:v>
+                  <c:v>0.36176622490806137</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>541020.69663818902</c:v>
+                  <c:v>0.54102069663818897</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>439618.50834184897</c:v>
+                  <c:v>0.43961850834184896</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>210103.85119115902</c:v>
+                  <c:v>0.21010385119115901</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>236050.83863486096</c:v>
+                  <c:v>0.23605083863486095</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>472475.02780436364</c:v>
+                  <c:v>0.47247502780436362</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>338952.01105472969</c:v>
+                  <c:v>0.33895201105472972</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>562431.9311081518</c:v>
+                  <c:v>0.56243193110815182</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>536586.02596909483</c:v>
+                  <c:v>0.53658602596909488</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>210963.716287672</c:v>
+                  <c:v>0.21096371628767199</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>164180.10884114605</c:v>
+                  <c:v>0.16418010884114606</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>558686.50477657781</c:v>
+                  <c:v>0.55868650477657777</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>207586.00016589454</c:v>
+                  <c:v>0.20758600016589454</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>563697.24638815259</c:v>
+                  <c:v>0.56369724638815255</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>200030.51100224876</c:v>
+                  <c:v>0.20003051100224875</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>186596.15053868046</c:v>
+                  <c:v>0.18659615053868048</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>442047.35836334445</c:v>
+                  <c:v>0.44204735836334447</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>271924.42145810468</c:v>
+                  <c:v>0.27192442145810469</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1000</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>180091.315279445</c:v>
+                  <c:v>0.180091315279445</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1771.1901833292832</c:v>
+                  <c:v>1.7711901833292831E-3</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>42555.132308641354</c:v>
+                  <c:v>4.2555132308641351E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>435462.66953567875</c:v>
+                  <c:v>0.43546266953567875</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>324235.93091631349</c:v>
+                  <c:v>0.32423593091631348</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>128186.40158883638</c:v>
+                  <c:v>0.12818640158883637</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>464460.22072518291</c:v>
+                  <c:v>0.46446022072518289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1219,120 +1108,120 @@
             <c:numRef>
               <c:f>Sheet1!$H$5:$H$44</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="40"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="0.0">
                   <c:v>1669.32</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>358.38</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="0.00">
+                <c:pt idx="2">
                   <c:v>1633.8</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" formatCode="General">
                   <c:v>1132.26</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" formatCode="General">
                   <c:v>1891.78</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="5" formatCode="General">
                   <c:v>1875.41</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="6" formatCode="General">
                   <c:v>2232.39</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="7" formatCode="General">
                   <c:v>2138.14</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="8" formatCode="General">
                   <c:v>1295.8900000000001</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="9" formatCode="General">
                   <c:v>1066.26</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="10" formatCode="General">
                   <c:v>1939.77</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="11" formatCode="General">
                   <c:v>2078.86</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="12" formatCode="General">
                   <c:v>1598.71</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="13" formatCode="General">
                   <c:v>597.91</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="14" formatCode="General">
                   <c:v>1257.5899999999999</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="15" formatCode="General">
                   <c:v>1988.61</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="16" formatCode="General">
                   <c:v>1624.26</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="17" formatCode="General">
                   <c:v>784.35</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="18" formatCode="General">
                   <c:v>868.09</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="19" formatCode="General">
                   <c:v>1747.2</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="20" formatCode="General">
                   <c:v>1257.58</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="21" formatCode="General">
                   <c:v>2112.79</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="22" formatCode="General">
                   <c:v>1870.01</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="23" formatCode="General">
                   <c:v>775.75</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="24" formatCode="General">
                   <c:v>604.33000000000004</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="25" formatCode="General">
                   <c:v>1996.23</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="26" formatCode="General">
                   <c:v>765.48</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="27" formatCode="General">
                   <c:v>2174.2199999999998</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="28" formatCode="General">
                   <c:v>751.62</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="29" formatCode="General">
                   <c:v>680.71</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="30" formatCode="General">
                   <c:v>1678.67</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="31" formatCode="General">
                   <c:v>1004.24</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="33" formatCode="General">
                   <c:v>657.99</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="35" formatCode="General">
                   <c:v>158.31</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="36" formatCode="General">
                   <c:v>1587.27</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="37" formatCode="General">
                   <c:v>1198.6099999999999</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="38" formatCode="General">
                   <c:v>464</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="39" formatCode="General">
                   <c:v>1752.85</c:v>
                 </c:pt>
               </c:numCache>
@@ -1341,7 +1230,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B14D-314F-8BF1-91EC762E9A81}"/>
+              <c16:uniqueId val="{00000000-ECF4-D64B-B6C9-A1960B27D67C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1353,11 +1242,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1789657248"/>
-        <c:axId val="151227711"/>
+        <c:axId val="1551239760"/>
+        <c:axId val="1551470176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1789657248"/>
+        <c:axId val="1551239760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1397,9 +1286,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1200"/>
-                  <a:t>Distance (pc)</a:t>
+                  <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Distance (Mpc)</a:t>
                 </a:r>
+                <a:endParaRPr lang="en-US">
+                  <a:effectLst/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1469,12 +1363,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="151227711"/>
+        <c:crossAx val="1551470176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="151227711"/>
+        <c:axId val="1551470176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1514,17 +1408,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1200"/>
-                  <a:t>Radial</a:t>
+                  <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Radial Velocity (km/s) </a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1200" baseline="0"/>
-                  <a:t> Velocity (km/s)</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1200"/>
-                  <a:t> </a:t>
-                </a:r>
+                <a:endParaRPr lang="en-US">
+                  <a:effectLst/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1557,7 +1448,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1594,7 +1485,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1789657248"/>
+        <c:crossAx val="1551239760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1606,8 +1497,95 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Hubble (Base distance 800 pc)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1621,7 +1599,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1636,7 +1614,1385 @@
           <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
-    </c:legend>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.3739838293112305E-2"/>
+                  <c:y val="0.41065131085599804"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                      <a:t>y = 4638.4x</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="1400"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$6:$C$45</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>0.36601378061001905</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.7256784326584546E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.35813029117144707</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.24073745152100182</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.39524234394840208</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.42076760629806559</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.45403604306467393</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.46477123827044742</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.27362371276213981</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.23364668993903587</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.40815746328341018</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.43553585038982717</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.34559423373594417</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.13057300443202199</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.28941297992644915</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.43281655731055124</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.35169480667347913</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.16808308095292721</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.18884067090788875</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.37798002224349092</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.27116160884378376</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.4499455448865215</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.42926882077527589</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.16877097303013761</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.13134408707291684</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.44694920382126219</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.16606880013271563</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.45095779711052203</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.160024408801799</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.14927692043094437</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.35363788669067558</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.21753953716648375</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.0000000000000004E-4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.14407305222355601</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.4169521466634264E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.4044105846913079E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.34837013562854302</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.25938874473305079</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.1025491212710691</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.37156817658014629</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$6:$D$45</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0" formatCode="0.0">
+                  <c:v>1669.32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>358.38</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1633.8</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>1132.26</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>1891.78</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>1875.41</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>2232.39</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>2138.14</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>1295.8900000000001</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>1066.26</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>1939.77</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>2078.86</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>1598.71</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>597.91</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>1257.5899999999999</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>1988.61</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>1624.26</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="General">
+                  <c:v>784.35</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="General">
+                  <c:v>868.09</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="General">
+                  <c:v>1747.2</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
+                  <c:v>1257.58</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="General">
+                  <c:v>2112.79</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="General">
+                  <c:v>1870.01</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="General">
+                  <c:v>775.75</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="General">
+                  <c:v>604.33000000000004</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="General">
+                  <c:v>1996.23</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="General">
+                  <c:v>765.48</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="General">
+                  <c:v>2174.2199999999998</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="General">
+                  <c:v>751.62</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="General">
+                  <c:v>680.71</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="General">
+                  <c:v>1678.67</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="General">
+                  <c:v>1004.24</c:v>
+                </c:pt>
+                <c:pt idx="33" formatCode="General">
+                  <c:v>657.99</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="General">
+                  <c:v>158.31</c:v>
+                </c:pt>
+                <c:pt idx="36" formatCode="General">
+                  <c:v>1587.27</c:v>
+                </c:pt>
+                <c:pt idx="37" formatCode="General">
+                  <c:v>1198.6099999999999</c:v>
+                </c:pt>
+                <c:pt idx="38" formatCode="General">
+                  <c:v>464</c:v>
+                </c:pt>
+                <c:pt idx="39" formatCode="General">
+                  <c:v>1752.85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-504A-DD42-830A-EE1DFBB5BB76}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="341608272"/>
+        <c:axId val="650045215"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="341608272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Distance (Mpc)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="650045215"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="650045215"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Radial Velocity (km/s) </a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="341608272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Hubble (Base distance 1200</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> pc)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.9562692412976085E-2"/>
+                  <c:y val="0.40362020592902165"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                      <a:t>y = 3092.3x</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="1400"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$I$6:$I$45</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>0.54902067091502871</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11588517648987681</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.53719543675717063</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.36110617728150274</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.59286351592260322</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.63115140944709835</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.68105406459701101</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.69715685740567113</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.41043556914320967</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.35047003490855377</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.61223619492511527</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.65330377558474073</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.51839135060391617</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.19585950664803298</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.4341194698896737</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.64922483596582692</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.52754221001021884</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.25212462142939085</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.28326100636183316</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.56697003336523633</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.40674241326567567</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.67491831732978214</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.64390323116291381</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.25315645954520638</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.19701613060937526</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.67042380573189331</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.24910320019907345</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.67643669566578302</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.24003661320269851</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.22391538064641656</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.5304568300360134</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.32630930574972561</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.1999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.21610957833533401</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.1254282199951401E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.106615877036963E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.52255520344281448</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.38908311709957616</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.15382368190660364</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.55735226487021949</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$J$6:$J$45</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0" formatCode="0.0">
+                  <c:v>1669.32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>358.38</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1633.8</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>1132.26</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>1891.78</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>1875.41</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>2232.39</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>2138.14</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>1295.8900000000001</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>1066.26</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>1939.77</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>2078.86</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>1598.71</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>597.91</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>1257.5899999999999</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>1988.61</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>1624.26</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="General">
+                  <c:v>784.35</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="General">
+                  <c:v>868.09</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="General">
+                  <c:v>1747.2</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
+                  <c:v>1257.58</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="General">
+                  <c:v>2112.79</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="General">
+                  <c:v>1870.01</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="General">
+                  <c:v>775.75</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="General">
+                  <c:v>604.33000000000004</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="General">
+                  <c:v>1996.23</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="General">
+                  <c:v>765.48</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="General">
+                  <c:v>2174.2199999999998</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="General">
+                  <c:v>751.62</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="General">
+                  <c:v>680.71</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="General">
+                  <c:v>1678.67</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="General">
+                  <c:v>1004.24</c:v>
+                </c:pt>
+                <c:pt idx="33" formatCode="General">
+                  <c:v>657.99</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="General">
+                  <c:v>158.31</c:v>
+                </c:pt>
+                <c:pt idx="36" formatCode="General">
+                  <c:v>1587.27</c:v>
+                </c:pt>
+                <c:pt idx="37" formatCode="General">
+                  <c:v>1198.6099999999999</c:v>
+                </c:pt>
+                <c:pt idx="38" formatCode="General">
+                  <c:v>464</c:v>
+                </c:pt>
+                <c:pt idx="39" formatCode="General">
+                  <c:v>1752.85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D92E-174F-9FDB-0BBE67343CF2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1789886704"/>
+        <c:axId val="630464671"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1789886704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Distance (Mpc)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="630464671"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="630464671"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Radial Velocity (km/s) </a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1789886704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1721,6 +3077,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2237,27 +3673,1059 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>778932</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>59267</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>609601</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>84666</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>84667</xdr:colOff>
       <xdr:row>63</xdr:row>
-      <xdr:rowOff>169333</xdr:rowOff>
+      <xdr:rowOff>16933</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1024439E-0B2E-6F47-86E9-933D92D354CD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0CFD097-BF9F-FF4D-9879-F2EC4CB01103}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2270,6 +4738,83 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>16934</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>177799</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>448733</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>110067</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1727472C-8D58-A249-A0A6-53830D73C9E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>8466</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>135466</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>507999</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>25399</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{648E40E9-34AB-1C4E-88B3-08664F776722}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2577,8 +5122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B03396F8-2CD2-7545-A67C-2500576C3881}">
   <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="K50" sqref="K50"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2599,6 +5144,9 @@
       <c r="F1" s="1" t="s">
         <v>89</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="H1" s="1" t="s">
         <v>99</v>
       </c>
@@ -2635,6 +5183,9 @@
       <c r="F3" s="2" t="s">
         <v>101</v>
       </c>
+      <c r="G3" s="2" t="s">
+        <v>190</v>
+      </c>
       <c r="H3" t="s">
         <v>100</v>
       </c>
@@ -2662,7 +5213,11 @@
         <f>SQRT((70541518*1000000)/D5)</f>
         <v>457517.22576252383</v>
       </c>
-      <c r="H5">
+      <c r="G5" s="14">
+        <f>F5/1000000</f>
+        <v>0.45751722576252385</v>
+      </c>
+      <c r="H5" s="15">
         <v>1669.32</v>
       </c>
       <c r="I5" t="s">
@@ -2686,7 +5241,11 @@
         <f t="shared" ref="F6:F44" si="0">SQRT((70541518*1000000)/D6)</f>
         <v>96570.98040823068</v>
       </c>
-      <c r="H6">
+      <c r="G6" s="14">
+        <f t="shared" ref="G6:G44" si="1">F6/1000000</f>
+        <v>9.6570980408230686E-2</v>
+      </c>
+      <c r="H6" s="10">
         <v>358.38</v>
       </c>
       <c r="I6" t="s">
@@ -2710,6 +5269,10 @@
         <f t="shared" si="0"/>
         <v>447662.86396430881</v>
       </c>
+      <c r="G7" s="14">
+        <f t="shared" si="1"/>
+        <v>0.44766286396430882</v>
+      </c>
       <c r="H7" s="10">
         <v>1633.8</v>
       </c>
@@ -2736,6 +5299,10 @@
         <f t="shared" si="0"/>
         <v>300921.81440125225</v>
       </c>
+      <c r="G8" s="14">
+        <f t="shared" si="1"/>
+        <v>0.30092181440125226</v>
+      </c>
       <c r="H8">
         <v>1132.26</v>
       </c>
@@ -2762,6 +5329,10 @@
         <f t="shared" si="0"/>
         <v>494052.92993550265</v>
       </c>
+      <c r="G9" s="14">
+        <f t="shared" si="1"/>
+        <v>0.49405292993550265</v>
+      </c>
       <c r="H9">
         <v>1891.78</v>
       </c>
@@ -2790,6 +5361,10 @@
         <f t="shared" si="0"/>
         <v>525959.50787258195</v>
       </c>
+      <c r="G10" s="14">
+        <f t="shared" si="1"/>
+        <v>0.52595950787258194</v>
+      </c>
       <c r="H10">
         <v>1875.41</v>
       </c>
@@ -2818,6 +5393,10 @@
         <f t="shared" si="0"/>
         <v>567545.05383084249</v>
       </c>
+      <c r="G11" s="14">
+        <f t="shared" si="1"/>
+        <v>0.56754505383084253</v>
+      </c>
       <c r="H11">
         <v>2232.39</v>
       </c>
@@ -2846,6 +5425,10 @@
         <f t="shared" si="0"/>
         <v>580964.04783805925</v>
       </c>
+      <c r="G12" s="14">
+        <f t="shared" si="1"/>
+        <v>0.58096404783805922</v>
+      </c>
       <c r="H12">
         <v>2138.14</v>
       </c>
@@ -2876,6 +5459,10 @@
         <f t="shared" si="0"/>
         <v>342029.64095267473</v>
       </c>
+      <c r="G13" s="14">
+        <f t="shared" si="1"/>
+        <v>0.34202964095267474</v>
+      </c>
       <c r="H13">
         <v>1295.8900000000001</v>
       </c>
@@ -2903,6 +5490,10 @@
         <f t="shared" si="0"/>
         <v>292058.36242379481</v>
       </c>
+      <c r="G14" s="14">
+        <f t="shared" si="1"/>
+        <v>0.29205836242379479</v>
+      </c>
       <c r="H14">
         <v>1066.26</v>
       </c>
@@ -2927,6 +5518,10 @@
         <f t="shared" si="0"/>
         <v>510196.82910426275</v>
       </c>
+      <c r="G15" s="14">
+        <f t="shared" si="1"/>
+        <v>0.51019682910426278</v>
+      </c>
       <c r="H15">
         <v>1939.77</v>
       </c>
@@ -2954,6 +5549,10 @@
         <f t="shared" si="0"/>
         <v>544419.81298728392</v>
       </c>
+      <c r="G16" s="14">
+        <f t="shared" si="1"/>
+        <v>0.54441981298728392</v>
+      </c>
       <c r="H16">
         <v>2078.86</v>
       </c>
@@ -2981,6 +5580,10 @@
         <f t="shared" si="0"/>
         <v>431992.79216993018</v>
       </c>
+      <c r="G17" s="14">
+        <f t="shared" si="1"/>
+        <v>0.4319927921699302</v>
+      </c>
       <c r="H17">
         <v>1598.71</v>
       </c>
@@ -3008,6 +5611,10 @@
         <f t="shared" si="0"/>
         <v>163216.25554002749</v>
       </c>
+      <c r="G18" s="14">
+        <f t="shared" si="1"/>
+        <v>0.1632162555400275</v>
+      </c>
       <c r="H18">
         <v>597.91</v>
       </c>
@@ -3035,6 +5642,10 @@
         <f t="shared" si="0"/>
         <v>361766.22490806138</v>
       </c>
+      <c r="G19" s="14">
+        <f t="shared" si="1"/>
+        <v>0.36176622490806137</v>
+      </c>
       <c r="H19">
         <v>1257.5899999999999</v>
       </c>
@@ -3062,6 +5673,10 @@
         <f t="shared" si="0"/>
         <v>541020.69663818902</v>
       </c>
+      <c r="G20" s="14">
+        <f t="shared" si="1"/>
+        <v>0.54102069663818897</v>
+      </c>
       <c r="H20">
         <v>1988.61</v>
       </c>
@@ -3086,6 +5701,10 @@
         <f t="shared" si="0"/>
         <v>439618.50834184897</v>
       </c>
+      <c r="G21" s="14">
+        <f t="shared" si="1"/>
+        <v>0.43961850834184896</v>
+      </c>
       <c r="H21">
         <v>1624.26</v>
       </c>
@@ -3113,6 +5732,10 @@
         <f t="shared" si="0"/>
         <v>210103.85119115902</v>
       </c>
+      <c r="G22" s="14">
+        <f t="shared" si="1"/>
+        <v>0.21010385119115901</v>
+      </c>
       <c r="H22">
         <v>784.35</v>
       </c>
@@ -3140,6 +5763,10 @@
         <f t="shared" si="0"/>
         <v>236050.83863486096</v>
       </c>
+      <c r="G23" s="14">
+        <f t="shared" si="1"/>
+        <v>0.23605083863486095</v>
+      </c>
       <c r="H23">
         <v>868.09</v>
       </c>
@@ -3164,6 +5791,10 @@
         <f t="shared" si="0"/>
         <v>472475.02780436364</v>
       </c>
+      <c r="G24" s="14">
+        <f t="shared" si="1"/>
+        <v>0.47247502780436362</v>
+      </c>
       <c r="H24">
         <v>1747.2</v>
       </c>
@@ -3191,6 +5822,10 @@
         <f t="shared" si="0"/>
         <v>338952.01105472969</v>
       </c>
+      <c r="G25" s="14">
+        <f t="shared" si="1"/>
+        <v>0.33895201105472972</v>
+      </c>
       <c r="H25" s="12">
         <v>1257.58</v>
       </c>
@@ -3219,6 +5854,10 @@
         <f t="shared" si="0"/>
         <v>562431.9311081518</v>
       </c>
+      <c r="G26" s="14">
+        <f t="shared" si="1"/>
+        <v>0.56243193110815182</v>
+      </c>
       <c r="H26" s="12">
         <v>2112.79</v>
       </c>
@@ -3246,6 +5885,10 @@
         <f t="shared" si="0"/>
         <v>536586.02596909483</v>
       </c>
+      <c r="G27" s="14">
+        <f t="shared" si="1"/>
+        <v>0.53658602596909488</v>
+      </c>
       <c r="H27" s="12">
         <v>1870.01</v>
       </c>
@@ -3275,6 +5918,10 @@
         <f t="shared" si="0"/>
         <v>210963.716287672</v>
       </c>
+      <c r="G28" s="14">
+        <f t="shared" si="1"/>
+        <v>0.21096371628767199</v>
+      </c>
       <c r="H28">
         <v>775.75</v>
       </c>
@@ -3299,6 +5946,10 @@
         <f t="shared" si="0"/>
         <v>164180.10884114605</v>
       </c>
+      <c r="G29" s="14">
+        <f t="shared" si="1"/>
+        <v>0.16418010884114606</v>
+      </c>
       <c r="H29">
         <v>604.33000000000004</v>
       </c>
@@ -3326,6 +5977,10 @@
         <f t="shared" si="0"/>
         <v>558686.50477657781</v>
       </c>
+      <c r="G30" s="14">
+        <f t="shared" si="1"/>
+        <v>0.55868650477657777</v>
+      </c>
       <c r="H30">
         <v>1996.23</v>
       </c>
@@ -3350,6 +6005,10 @@
         <f t="shared" si="0"/>
         <v>207586.00016589454</v>
       </c>
+      <c r="G31" s="14">
+        <f t="shared" si="1"/>
+        <v>0.20758600016589454</v>
+      </c>
       <c r="H31">
         <v>765.48</v>
       </c>
@@ -3377,6 +6036,10 @@
         <f t="shared" si="0"/>
         <v>563697.24638815259</v>
       </c>
+      <c r="G32" s="14">
+        <f t="shared" si="1"/>
+        <v>0.56369724638815255</v>
+      </c>
       <c r="H32">
         <v>2174.2199999999998</v>
       </c>
@@ -3407,6 +6070,10 @@
         <f t="shared" si="0"/>
         <v>200030.51100224876</v>
       </c>
+      <c r="G33" s="14">
+        <f t="shared" si="1"/>
+        <v>0.20003051100224875</v>
+      </c>
       <c r="H33">
         <v>751.62</v>
       </c>
@@ -3434,6 +6101,10 @@
         <f t="shared" si="0"/>
         <v>186596.15053868046</v>
       </c>
+      <c r="G34" s="14">
+        <f t="shared" si="1"/>
+        <v>0.18659615053868048</v>
+      </c>
       <c r="H34">
         <v>680.71</v>
       </c>
@@ -3461,6 +6132,10 @@
         <f t="shared" si="0"/>
         <v>442047.35836334445</v>
       </c>
+      <c r="G35" s="14">
+        <f t="shared" si="1"/>
+        <v>0.44204735836334447</v>
+      </c>
       <c r="H35">
         <v>1678.67</v>
       </c>
@@ -3488,6 +6163,10 @@
         <f t="shared" si="0"/>
         <v>271924.42145810468</v>
       </c>
+      <c r="G36" s="14">
+        <f t="shared" si="1"/>
+        <v>0.27192442145810469</v>
+      </c>
       <c r="H36">
         <v>1004.24</v>
       </c>
@@ -3518,6 +6197,10 @@
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
+      <c r="G37" s="14">
+        <f t="shared" si="1"/>
+        <v>1E-3</v>
+      </c>
       <c r="J37" s="6" t="s">
         <v>189</v>
       </c>
@@ -3539,6 +6222,10 @@
         <f t="shared" si="0"/>
         <v>180091.315279445</v>
       </c>
+      <c r="G38" s="14">
+        <f t="shared" si="1"/>
+        <v>0.180091315279445</v>
+      </c>
       <c r="H38">
         <v>657.99</v>
       </c>
@@ -3566,6 +6253,10 @@
         <f t="shared" si="0"/>
         <v>1771.1901833292832</v>
       </c>
+      <c r="G39" s="14">
+        <f t="shared" si="1"/>
+        <v>1.7711901833292831E-3</v>
+      </c>
       <c r="J39" s="6" t="s">
         <v>189</v>
       </c>
@@ -3587,6 +6278,10 @@
         <f t="shared" si="0"/>
         <v>42555.132308641354</v>
       </c>
+      <c r="G40" s="14">
+        <f t="shared" si="1"/>
+        <v>4.2555132308641351E-2</v>
+      </c>
       <c r="H40">
         <v>158.31</v>
       </c>
@@ -3614,6 +6309,10 @@
         <f t="shared" si="0"/>
         <v>435462.66953567875</v>
       </c>
+      <c r="G41" s="14">
+        <f t="shared" si="1"/>
+        <v>0.43546266953567875</v>
+      </c>
       <c r="H41">
         <v>1587.27</v>
       </c>
@@ -3641,6 +6340,10 @@
         <f t="shared" si="0"/>
         <v>324235.93091631349</v>
       </c>
+      <c r="G42" s="14">
+        <f t="shared" si="1"/>
+        <v>0.32423593091631348</v>
+      </c>
       <c r="H42">
         <v>1198.6099999999999</v>
       </c>
@@ -3668,6 +6371,10 @@
         <f t="shared" si="0"/>
         <v>128186.40158883638</v>
       </c>
+      <c r="G43" s="14">
+        <f t="shared" si="1"/>
+        <v>0.12818640158883637</v>
+      </c>
       <c r="H43">
         <v>464</v>
       </c>
@@ -3695,6 +6402,10 @@
         <f t="shared" si="0"/>
         <v>464460.22072518291</v>
       </c>
+      <c r="G44" s="14">
+        <f t="shared" si="1"/>
+        <v>0.46446022072518289</v>
+      </c>
       <c r="H44">
         <v>1752.85</v>
       </c>
@@ -3729,6 +6440,1251 @@
         <v>94</v>
       </c>
       <c r="C50" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EED194A9-1229-294B-981B-16EF6FD1EE09}">
+  <dimension ref="A1:J45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G69" sqref="G69"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D3" t="s">
+        <v>194</v>
+      </c>
+      <c r="G3" t="s">
+        <v>192</v>
+      </c>
+      <c r="H3" t="s">
+        <v>191</v>
+      </c>
+      <c r="I3" t="s">
+        <v>193</v>
+      </c>
+      <c r="J3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="2">
+        <v>337</v>
+      </c>
+      <c r="B6">
+        <f>SQRT((70541518*640000)/A6)</f>
+        <v>366013.78061001905</v>
+      </c>
+      <c r="C6" s="13">
+        <f>B6/1000000</f>
+        <v>0.36601378061001905</v>
+      </c>
+      <c r="D6" s="15">
+        <v>1669.32</v>
+      </c>
+      <c r="G6" s="2">
+        <v>337</v>
+      </c>
+      <c r="H6">
+        <f>SQRT((70541518*1440000)/G6)</f>
+        <v>549020.67091502866</v>
+      </c>
+      <c r="I6" s="13">
+        <f>H6/1000000</f>
+        <v>0.54902067091502871</v>
+      </c>
+      <c r="J6" s="15">
+        <v>1669.32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="2">
+        <v>7564</v>
+      </c>
+      <c r="B7">
+        <f>SQRT((70541518*640000)/A7)</f>
+        <v>77256.784326584544</v>
+      </c>
+      <c r="C7" s="13">
+        <f>B7/1000000</f>
+        <v>7.7256784326584546E-2</v>
+      </c>
+      <c r="D7" s="10">
+        <v>358.38</v>
+      </c>
+      <c r="G7" s="2">
+        <v>7564</v>
+      </c>
+      <c r="H7">
+        <f t="shared" ref="H7:H45" si="0">SQRT((70541518*1440000)/G7)</f>
+        <v>115885.17648987682</v>
+      </c>
+      <c r="I7" s="13">
+        <f>H7/1000000</f>
+        <v>0.11588517648987681</v>
+      </c>
+      <c r="J7" s="10">
+        <v>358.38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="2">
+        <v>352</v>
+      </c>
+      <c r="B8">
+        <f>SQRT((70541518*640000)/A8)</f>
+        <v>358130.29117144708</v>
+      </c>
+      <c r="C8" s="13">
+        <f>B8/1000000</f>
+        <v>0.35813029117144707</v>
+      </c>
+      <c r="D8" s="10">
+        <v>1633.8</v>
+      </c>
+      <c r="G8" s="2">
+        <v>352</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>537195.4367571706</v>
+      </c>
+      <c r="I8" s="13">
+        <f>H8/1000000</f>
+        <v>0.53719543675717063</v>
+      </c>
+      <c r="J8" s="10">
+        <v>1633.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="2">
+        <v>779</v>
+      </c>
+      <c r="B9">
+        <f>SQRT((70541518*640000)/A9)</f>
+        <v>240737.45152100181</v>
+      </c>
+      <c r="C9" s="13">
+        <f>B9/1000000</f>
+        <v>0.24073745152100182</v>
+      </c>
+      <c r="D9">
+        <v>1132.26</v>
+      </c>
+      <c r="G9" s="2">
+        <v>779</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>361106.17728150275</v>
+      </c>
+      <c r="I9" s="13">
+        <f>H9/1000000</f>
+        <v>0.36110617728150274</v>
+      </c>
+      <c r="J9">
+        <v>1132.26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="2">
+        <v>289</v>
+      </c>
+      <c r="B10">
+        <f>SQRT((70541518*640000)/A10)</f>
+        <v>395242.34394840209</v>
+      </c>
+      <c r="C10" s="13">
+        <f>B10/1000000</f>
+        <v>0.39524234394840208</v>
+      </c>
+      <c r="D10">
+        <v>1891.78</v>
+      </c>
+      <c r="G10" s="2">
+        <v>289</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>592863.5159226032</v>
+      </c>
+      <c r="I10" s="13">
+        <f>H10/1000000</f>
+        <v>0.59286351592260322</v>
+      </c>
+      <c r="J10">
+        <v>1891.78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="2">
+        <v>255</v>
+      </c>
+      <c r="B11">
+        <f>SQRT((70541518*640000)/A11)</f>
+        <v>420767.60629806557</v>
+      </c>
+      <c r="C11" s="13">
+        <f>B11/1000000</f>
+        <v>0.42076760629806559</v>
+      </c>
+      <c r="D11">
+        <v>1875.41</v>
+      </c>
+      <c r="G11" s="2">
+        <v>255</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>631151.40944709838</v>
+      </c>
+      <c r="I11" s="13">
+        <f>H11/1000000</f>
+        <v>0.63115140944709835</v>
+      </c>
+      <c r="J11">
+        <v>1875.41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="2">
+        <v>219</v>
+      </c>
+      <c r="B12">
+        <f>SQRT((70541518*640000)/A12)</f>
+        <v>454036.04306467396</v>
+      </c>
+      <c r="C12" s="13">
+        <f>B12/1000000</f>
+        <v>0.45403604306467393</v>
+      </c>
+      <c r="D12">
+        <v>2232.39</v>
+      </c>
+      <c r="G12" s="2">
+        <v>219</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>681054.06459701096</v>
+      </c>
+      <c r="I12" s="13">
+        <f>H12/1000000</f>
+        <v>0.68105406459701101</v>
+      </c>
+      <c r="J12">
+        <v>2232.39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="2">
+        <v>209</v>
+      </c>
+      <c r="B13">
+        <f>SQRT((70541518*640000)/A13)</f>
+        <v>464771.23827044741</v>
+      </c>
+      <c r="C13" s="13">
+        <f>B13/1000000</f>
+        <v>0.46477123827044742</v>
+      </c>
+      <c r="D13">
+        <v>2138.14</v>
+      </c>
+      <c r="G13" s="2">
+        <v>209</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>697156.85740567115</v>
+      </c>
+      <c r="I13" s="13">
+        <f>H13/1000000</f>
+        <v>0.69715685740567113</v>
+      </c>
+      <c r="J13">
+        <v>2138.14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="2">
+        <v>603</v>
+      </c>
+      <c r="B14">
+        <f>SQRT((70541518*640000)/A14)</f>
+        <v>273623.7127621398</v>
+      </c>
+      <c r="C14" s="13">
+        <f>B14/1000000</f>
+        <v>0.27362371276213981</v>
+      </c>
+      <c r="D14">
+        <v>1295.8900000000001</v>
+      </c>
+      <c r="G14" s="2">
+        <v>603</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>410435.56914320966</v>
+      </c>
+      <c r="I14" s="13">
+        <f>H14/1000000</f>
+        <v>0.41043556914320967</v>
+      </c>
+      <c r="J14">
+        <v>1295.8900000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="2">
+        <v>827</v>
+      </c>
+      <c r="B15">
+        <f>SQRT((70541518*640000)/A15)</f>
+        <v>233646.68993903586</v>
+      </c>
+      <c r="C15" s="13">
+        <f>B15/1000000</f>
+        <v>0.23364668993903587</v>
+      </c>
+      <c r="D15">
+        <v>1066.26</v>
+      </c>
+      <c r="G15" s="2">
+        <v>827</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>350470.03490855376</v>
+      </c>
+      <c r="I15" s="13">
+        <f>H15/1000000</f>
+        <v>0.35047003490855377</v>
+      </c>
+      <c r="J15">
+        <v>1066.26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="2">
+        <v>271</v>
+      </c>
+      <c r="B16">
+        <f>SQRT((70541518*640000)/A16)</f>
+        <v>408157.46328341018</v>
+      </c>
+      <c r="C16" s="13">
+        <f>B16/1000000</f>
+        <v>0.40815746328341018</v>
+      </c>
+      <c r="D16">
+        <v>1939.77</v>
+      </c>
+      <c r="G16" s="2">
+        <v>271</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>612236.19492511533</v>
+      </c>
+      <c r="I16" s="13">
+        <f>H16/1000000</f>
+        <v>0.61223619492511527</v>
+      </c>
+      <c r="J16">
+        <v>1939.77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="2">
+        <v>238</v>
+      </c>
+      <c r="B17">
+        <f>SQRT((70541518*640000)/A17)</f>
+        <v>435535.85038982716</v>
+      </c>
+      <c r="C17" s="13">
+        <f>B17/1000000</f>
+        <v>0.43553585038982717</v>
+      </c>
+      <c r="D17">
+        <v>2078.86</v>
+      </c>
+      <c r="G17" s="2">
+        <v>238</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>653303.77558474068</v>
+      </c>
+      <c r="I17" s="13">
+        <f>H17/1000000</f>
+        <v>0.65330377558474073</v>
+      </c>
+      <c r="J17">
+        <v>2078.86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="2">
+        <v>378</v>
+      </c>
+      <c r="B18">
+        <f>SQRT((70541518*640000)/A18)</f>
+        <v>345594.23373594414</v>
+      </c>
+      <c r="C18" s="13">
+        <f>B18/1000000</f>
+        <v>0.34559423373594417</v>
+      </c>
+      <c r="D18">
+        <v>1598.71</v>
+      </c>
+      <c r="G18" s="2">
+        <v>378</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>518391.35060391622</v>
+      </c>
+      <c r="I18" s="13">
+        <f>H18/1000000</f>
+        <v>0.51839135060391617</v>
+      </c>
+      <c r="J18">
+        <v>1598.71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="2">
+        <v>2648</v>
+      </c>
+      <c r="B19">
+        <f>SQRT((70541518*640000)/A19)</f>
+        <v>130573.00443202199</v>
+      </c>
+      <c r="C19" s="13">
+        <f>B19/1000000</f>
+        <v>0.13057300443202199</v>
+      </c>
+      <c r="D19">
+        <v>597.91</v>
+      </c>
+      <c r="G19" s="2">
+        <v>2648</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>195859.50664803298</v>
+      </c>
+      <c r="I19" s="13">
+        <f>H19/1000000</f>
+        <v>0.19585950664803298</v>
+      </c>
+      <c r="J19">
+        <v>597.91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="2">
+        <v>539</v>
+      </c>
+      <c r="B20">
+        <f>SQRT((70541518*640000)/A20)</f>
+        <v>289412.97992644913</v>
+      </c>
+      <c r="C20" s="13">
+        <f>B20/1000000</f>
+        <v>0.28941297992644915</v>
+      </c>
+      <c r="D20">
+        <v>1257.5899999999999</v>
+      </c>
+      <c r="G20" s="2">
+        <v>539</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>434119.4698896737</v>
+      </c>
+      <c r="I20" s="13">
+        <f>H20/1000000</f>
+        <v>0.4341194698896737</v>
+      </c>
+      <c r="J20">
+        <v>1257.5899999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="2">
+        <v>241</v>
+      </c>
+      <c r="B21">
+        <f>SQRT((70541518*640000)/A21)</f>
+        <v>432816.55731055123</v>
+      </c>
+      <c r="C21" s="13">
+        <f>B21/1000000</f>
+        <v>0.43281655731055124</v>
+      </c>
+      <c r="D21">
+        <v>1988.61</v>
+      </c>
+      <c r="G21" s="2">
+        <v>241</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>649224.83596582687</v>
+      </c>
+      <c r="I21" s="13">
+        <f>H21/1000000</f>
+        <v>0.64922483596582692</v>
+      </c>
+      <c r="J21">
+        <v>1988.61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="2">
+        <v>365</v>
+      </c>
+      <c r="B22">
+        <f>SQRT((70541518*640000)/A22)</f>
+        <v>351694.80667347915</v>
+      </c>
+      <c r="C22" s="13">
+        <f>B22/1000000</f>
+        <v>0.35169480667347913</v>
+      </c>
+      <c r="D22">
+        <v>1624.26</v>
+      </c>
+      <c r="G22" s="2">
+        <v>365</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>527542.21001021878</v>
+      </c>
+      <c r="I22" s="13">
+        <f>H22/1000000</f>
+        <v>0.52754221001021884</v>
+      </c>
+      <c r="J22">
+        <v>1624.26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="2">
+        <v>1598</v>
+      </c>
+      <c r="B23">
+        <f>SQRT((70541518*640000)/A23)</f>
+        <v>168083.08095292721</v>
+      </c>
+      <c r="C23" s="13">
+        <f>B23/1000000</f>
+        <v>0.16808308095292721</v>
+      </c>
+      <c r="D23">
+        <v>784.35</v>
+      </c>
+      <c r="G23" s="2">
+        <v>1598</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>252124.62142939083</v>
+      </c>
+      <c r="I23" s="13">
+        <f>H23/1000000</f>
+        <v>0.25212462142939085</v>
+      </c>
+      <c r="J23">
+        <v>784.35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="2">
+        <v>1266</v>
+      </c>
+      <c r="B24">
+        <f>SQRT((70541518*640000)/A24)</f>
+        <v>188840.67090788877</v>
+      </c>
+      <c r="C24" s="13">
+        <f>B24/1000000</f>
+        <v>0.18884067090788875</v>
+      </c>
+      <c r="D24">
+        <v>868.09</v>
+      </c>
+      <c r="G24" s="2">
+        <v>1266</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>283261.00636183313</v>
+      </c>
+      <c r="I24" s="13">
+        <f>H24/1000000</f>
+        <v>0.28326100636183316</v>
+      </c>
+      <c r="J24">
+        <v>868.09</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="2">
+        <v>316</v>
+      </c>
+      <c r="B25">
+        <f>SQRT((70541518*640000)/A25)</f>
+        <v>377980.02224349091</v>
+      </c>
+      <c r="C25" s="13">
+        <f>B25/1000000</f>
+        <v>0.37798002224349092</v>
+      </c>
+      <c r="D25">
+        <v>1747.2</v>
+      </c>
+      <c r="G25" s="2">
+        <v>316</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>566970.03336523636</v>
+      </c>
+      <c r="I25" s="13">
+        <f>H25/1000000</f>
+        <v>0.56697003336523633</v>
+      </c>
+      <c r="J25">
+        <v>1747.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="2">
+        <v>614</v>
+      </c>
+      <c r="B26">
+        <f>SQRT((70541518*640000)/A26)</f>
+        <v>271161.60884378379</v>
+      </c>
+      <c r="C26" s="13">
+        <f>B26/1000000</f>
+        <v>0.27116160884378376</v>
+      </c>
+      <c r="D26" s="12">
+        <v>1257.58</v>
+      </c>
+      <c r="G26" s="2">
+        <v>614</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>406742.41326567566</v>
+      </c>
+      <c r="I26" s="13">
+        <f>H26/1000000</f>
+        <v>0.40674241326567567</v>
+      </c>
+      <c r="J26" s="12">
+        <v>1257.58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="2">
+        <v>223</v>
+      </c>
+      <c r="B27">
+        <f>SQRT((70541518*640000)/A27)</f>
+        <v>449945.54488652147</v>
+      </c>
+      <c r="C27" s="13">
+        <f>B27/1000000</f>
+        <v>0.4499455448865215</v>
+      </c>
+      <c r="D27" s="12">
+        <v>2112.79</v>
+      </c>
+      <c r="G27" s="2">
+        <v>223</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>674918.31732978218</v>
+      </c>
+      <c r="I27" s="13">
+        <f>H27/1000000</f>
+        <v>0.67491831732978214</v>
+      </c>
+      <c r="J27" s="12">
+        <v>2112.79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="2">
+        <v>245</v>
+      </c>
+      <c r="B28">
+        <f>SQRT((70541518*640000)/A28)</f>
+        <v>429268.82077527588</v>
+      </c>
+      <c r="C28" s="13">
+        <f>B28/1000000</f>
+        <v>0.42926882077527589</v>
+      </c>
+      <c r="D28" s="12">
+        <v>1870.01</v>
+      </c>
+      <c r="G28" s="2">
+        <v>245</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="0"/>
+        <v>643903.23116291384</v>
+      </c>
+      <c r="I28" s="13">
+        <f>H28/1000000</f>
+        <v>0.64390323116291381</v>
+      </c>
+      <c r="J28" s="12">
+        <v>1870.01</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="2">
+        <v>1585</v>
+      </c>
+      <c r="B29">
+        <f>SQRT((70541518*640000)/A29)</f>
+        <v>168770.9730301376</v>
+      </c>
+      <c r="C29" s="13">
+        <f>B29/1000000</f>
+        <v>0.16877097303013761</v>
+      </c>
+      <c r="D29">
+        <v>775.75</v>
+      </c>
+      <c r="G29" s="2">
+        <v>1585</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="0"/>
+        <v>253156.45954520639</v>
+      </c>
+      <c r="I29" s="13">
+        <f>H29/1000000</f>
+        <v>0.25315645954520638</v>
+      </c>
+      <c r="J29">
+        <v>775.75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="2">
+        <v>2617</v>
+      </c>
+      <c r="B30">
+        <f>SQRT((70541518*640000)/A30)</f>
+        <v>131344.08707291682</v>
+      </c>
+      <c r="C30" s="13">
+        <f>B30/1000000</f>
+        <v>0.13134408707291684</v>
+      </c>
+      <c r="D30">
+        <v>604.33000000000004</v>
+      </c>
+      <c r="G30" s="2">
+        <v>2617</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="0"/>
+        <v>197016.13060937525</v>
+      </c>
+      <c r="I30" s="13">
+        <f>H30/1000000</f>
+        <v>0.19701613060937526</v>
+      </c>
+      <c r="J30">
+        <v>604.33000000000004</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="2">
+        <v>226</v>
+      </c>
+      <c r="B31">
+        <f>SQRT((70541518*640000)/A31)</f>
+        <v>446949.20382126217</v>
+      </c>
+      <c r="C31" s="13">
+        <f>B31/1000000</f>
+        <v>0.44694920382126219</v>
+      </c>
+      <c r="D31">
+        <v>1996.23</v>
+      </c>
+      <c r="G31" s="2">
+        <v>226</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="0"/>
+        <v>670423.80573189328</v>
+      </c>
+      <c r="I31" s="13">
+        <f>H31/1000000</f>
+        <v>0.67042380573189331</v>
+      </c>
+      <c r="J31">
+        <v>1996.23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="2">
+        <v>1637</v>
+      </c>
+      <c r="B32">
+        <f>SQRT((70541518*640000)/A32)</f>
+        <v>166068.80013271564</v>
+      </c>
+      <c r="C32" s="13">
+        <f>B32/1000000</f>
+        <v>0.16606880013271563</v>
+      </c>
+      <c r="D32">
+        <v>765.48</v>
+      </c>
+      <c r="G32" s="2">
+        <v>1637</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="0"/>
+        <v>249103.20019907344</v>
+      </c>
+      <c r="I32" s="13">
+        <f>H32/1000000</f>
+        <v>0.24910320019907345</v>
+      </c>
+      <c r="J32">
+        <v>765.48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="2">
+        <v>222</v>
+      </c>
+      <c r="B33">
+        <f>SQRT((70541518*640000)/A33)</f>
+        <v>450957.79711052205</v>
+      </c>
+      <c r="C33" s="13">
+        <f>B33/1000000</f>
+        <v>0.45095779711052203</v>
+      </c>
+      <c r="D33">
+        <v>2174.2199999999998</v>
+      </c>
+      <c r="G33" s="2">
+        <v>222</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="0"/>
+        <v>676436.69566578302</v>
+      </c>
+      <c r="I33" s="13">
+        <f>H33/1000000</f>
+        <v>0.67643669566578302</v>
+      </c>
+      <c r="J33">
+        <v>2174.2199999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="2">
+        <v>1763</v>
+      </c>
+      <c r="B34">
+        <f>SQRT((70541518*640000)/A34)</f>
+        <v>160024.408801799</v>
+      </c>
+      <c r="C34" s="13">
+        <f>B34/1000000</f>
+        <v>0.160024408801799</v>
+      </c>
+      <c r="D34">
+        <v>751.62</v>
+      </c>
+      <c r="G34" s="2">
+        <v>1763</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="0"/>
+        <v>240036.6132026985</v>
+      </c>
+      <c r="I34" s="13">
+        <f>H34/1000000</f>
+        <v>0.24003661320269851</v>
+      </c>
+      <c r="J34">
+        <v>751.62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B35">
+        <f>SQRT((70541518*640000)/A35)</f>
+        <v>149276.92043094436</v>
+      </c>
+      <c r="C35" s="13">
+        <f>B35/1000000</f>
+        <v>0.14927692043094437</v>
+      </c>
+      <c r="D35">
+        <v>680.71</v>
+      </c>
+      <c r="G35" s="2">
+        <v>2026</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="0"/>
+        <v>223915.38064641657</v>
+      </c>
+      <c r="I35" s="13">
+        <f>H35/1000000</f>
+        <v>0.22391538064641656</v>
+      </c>
+      <c r="J35">
+        <v>680.71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="2">
+        <v>361</v>
+      </c>
+      <c r="B36">
+        <f>SQRT((70541518*640000)/A36)</f>
+        <v>353637.88669067557</v>
+      </c>
+      <c r="C36" s="13">
+        <f>B36/1000000</f>
+        <v>0.35363788669067558</v>
+      </c>
+      <c r="D36">
+        <v>1678.67</v>
+      </c>
+      <c r="G36" s="2">
+        <v>361</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="0"/>
+        <v>530456.83003601339</v>
+      </c>
+      <c r="I36" s="13">
+        <f>H36/1000000</f>
+        <v>0.5304568300360134</v>
+      </c>
+      <c r="J36">
+        <v>1678.67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="2">
+        <v>954</v>
+      </c>
+      <c r="B37">
+        <f>SQRT((70541518*640000)/A37)</f>
+        <v>217539.53716648376</v>
+      </c>
+      <c r="C37" s="13">
+        <f>B37/1000000</f>
+        <v>0.21753953716648375</v>
+      </c>
+      <c r="D37">
+        <v>1004.24</v>
+      </c>
+      <c r="G37" s="2">
+        <v>954</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="0"/>
+        <v>326309.30574972561</v>
+      </c>
+      <c r="I37" s="13">
+        <f>H37/1000000</f>
+        <v>0.32630930574972561</v>
+      </c>
+      <c r="J37">
+        <v>1004.24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="2">
+        <v>70541518</v>
+      </c>
+      <c r="B38">
+        <f>SQRT((70541518*640000)/A38)</f>
+        <v>800</v>
+      </c>
+      <c r="C38" s="13">
+        <f>B38/1000000</f>
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="G38" s="2">
+        <v>70541518</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+      <c r="I38" s="13">
+        <f>H38/1000000</f>
+        <v>1.1999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="2">
+        <v>2175</v>
+      </c>
+      <c r="B39">
+        <f>SQRT((70541518*640000)/A39)</f>
+        <v>144073.05222355601</v>
+      </c>
+      <c r="C39" s="13">
+        <f>B39/1000000</f>
+        <v>0.14407305222355601</v>
+      </c>
+      <c r="D39">
+        <v>657.99</v>
+      </c>
+      <c r="G39" s="2">
+        <v>2175</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="0"/>
+        <v>216109.57833533399</v>
+      </c>
+      <c r="I39" s="13">
+        <f>H39/1000000</f>
+        <v>0.21610957833533401</v>
+      </c>
+      <c r="J39">
+        <v>657.99</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="2">
+        <v>22486114</v>
+      </c>
+      <c r="B40">
+        <f>SQRT((70541518*640000)/A40)</f>
+        <v>1416.9521466634264</v>
+      </c>
+      <c r="C40" s="13">
+        <f>B40/1000000</f>
+        <v>1.4169521466634264E-3</v>
+      </c>
+      <c r="G40" s="2">
+        <v>22486114</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="0"/>
+        <v>2125.4282199951399</v>
+      </c>
+      <c r="I40" s="13">
+        <f>H40/1000000</f>
+        <v>2.1254282199951401E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="2">
+        <v>38953</v>
+      </c>
+      <c r="B41">
+        <f>SQRT((70541518*640000)/A41)</f>
+        <v>34044.10584691308</v>
+      </c>
+      <c r="C41" s="13">
+        <f>B41/1000000</f>
+        <v>3.4044105846913079E-2</v>
+      </c>
+      <c r="D41">
+        <v>158.31</v>
+      </c>
+      <c r="G41" s="2">
+        <v>38953</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="0"/>
+        <v>51066.158770369628</v>
+      </c>
+      <c r="I41" s="13">
+        <f>H41/1000000</f>
+        <v>5.106615877036963E-2</v>
+      </c>
+      <c r="J41">
+        <v>158.31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="2">
+        <v>372</v>
+      </c>
+      <c r="B42">
+        <f>SQRT((70541518*640000)/A42)</f>
+        <v>348370.13562854304</v>
+      </c>
+      <c r="C42" s="13">
+        <f>B42/1000000</f>
+        <v>0.34837013562854302</v>
+      </c>
+      <c r="D42">
+        <v>1587.27</v>
+      </c>
+      <c r="G42" s="2">
+        <v>372</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="0"/>
+        <v>522555.20344281453</v>
+      </c>
+      <c r="I42" s="13">
+        <f>H42/1000000</f>
+        <v>0.52255520344281448</v>
+      </c>
+      <c r="J42">
+        <v>1587.27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="2">
+        <v>671</v>
+      </c>
+      <c r="B43">
+        <f>SQRT((70541518*640000)/A43)</f>
+        <v>259388.74473305079</v>
+      </c>
+      <c r="C43" s="13">
+        <f>B43/1000000</f>
+        <v>0.25938874473305079</v>
+      </c>
+      <c r="D43">
+        <v>1198.6099999999999</v>
+      </c>
+      <c r="G43" s="2">
+        <v>671</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="0"/>
+        <v>389083.11709957616</v>
+      </c>
+      <c r="I43" s="13">
+        <f>H43/1000000</f>
+        <v>0.38908311709957616</v>
+      </c>
+      <c r="J43">
+        <v>1198.6099999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="2">
+        <v>4293</v>
+      </c>
+      <c r="B44">
+        <f>SQRT((70541518*640000)/A44)</f>
+        <v>102549.1212710691</v>
+      </c>
+      <c r="C44" s="13">
+        <f>B44/1000000</f>
+        <v>0.1025491212710691</v>
+      </c>
+      <c r="D44">
+        <v>464</v>
+      </c>
+      <c r="G44" s="2">
+        <v>4293</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="0"/>
+        <v>153823.68190660366</v>
+      </c>
+      <c r="I44" s="13">
+        <f>H44/1000000</f>
+        <v>0.15382368190660364</v>
+      </c>
+      <c r="J44">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="2">
+        <v>327</v>
+      </c>
+      <c r="B45">
+        <f>SQRT((70541518*640000)/A45)</f>
+        <v>371568.1765801463</v>
+      </c>
+      <c r="C45" s="13">
+        <f>B45/1000000</f>
+        <v>0.37156817658014629</v>
+      </c>
+      <c r="D45">
+        <v>1752.85</v>
+      </c>
+      <c r="G45" s="2">
+        <v>327</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="0"/>
+        <v>557352.26487021951</v>
+      </c>
+      <c r="I45" s="13">
+        <f>H45/1000000</f>
+        <v>0.55735226487021949</v>
+      </c>
+      <c r="J45">
+        <v>1752.85</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AllXrayFlashDistancesWithHubble.xlsx
+++ b/AllXrayFlashDistancesWithHubble.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kara/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kara/Desktop/Distance Ladder Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{333CF0EA-6EF0-C443-8CFB-3782CA5AA26C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{538D8E59-CCC5-C04C-9E85-E730169D6E0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="2220" windowWidth="30560" windowHeight="17440" activeTab="1" xr2:uid="{CFD1F812-84B3-E148-A654-A2C50FB36FF8}"/>
+    <workbookView xWindow="280" yWindow="2220" windowWidth="30560" windowHeight="17440" xr2:uid="{CFD1F812-84B3-E148-A654-A2C50FB36FF8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="182">
   <si>
     <t>Camera Direction</t>
   </si>
@@ -308,9 +308,6 @@
     <t>Distance</t>
   </si>
   <si>
-    <t xml:space="preserve">Distance to this flash using HR fitting D0 = 1000 pc. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Let the brightest x-ray flash (in Up/F06)  be F0 = 70541518 photons </t>
   </si>
   <si>
@@ -386,60 +383,39 @@
     <t>F05618</t>
   </si>
   <si>
-    <t>Lots of Vr's - could this be colliding galaxies ? Or an Eliptical Gal?</t>
-  </si>
-  <si>
     <t>Right/B01</t>
   </si>
   <si>
     <t>F04852</t>
   </si>
   <si>
-    <t>4 nearby spirals?</t>
-  </si>
-  <si>
     <t>Right/D03</t>
   </si>
   <si>
     <t>F03591</t>
   </si>
   <si>
-    <t>2 lots of positive Vr's - close in value</t>
-  </si>
-  <si>
     <t>Right/F03</t>
   </si>
   <si>
     <t>F05689</t>
   </si>
   <si>
-    <t>2 spirals?</t>
-  </si>
-  <si>
     <t>Right/A01</t>
   </si>
   <si>
     <t>F06698</t>
   </si>
   <si>
-    <t>1 spiral</t>
-  </si>
-  <si>
     <t>F06482</t>
   </si>
   <si>
-    <t>3-4 galaxies colliding?</t>
-  </si>
-  <si>
     <t>Left/C03</t>
   </si>
   <si>
     <t>F03290</t>
   </si>
   <si>
-    <t>2 spirals ?</t>
-  </si>
-  <si>
     <t>Left/B01</t>
   </si>
   <si>
@@ -452,9 +428,6 @@
     <t>F05950</t>
   </si>
   <si>
-    <t>3 spirals</t>
-  </si>
-  <si>
     <t>Down/B01</t>
   </si>
   <si>
@@ -470,9 +443,6 @@
     <t>Down/F03</t>
   </si>
   <si>
-    <t>2 spirals</t>
-  </si>
-  <si>
     <t>F00730</t>
   </si>
   <si>
@@ -527,33 +497,21 @@
     <t>Front/A01</t>
   </si>
   <si>
-    <t>2 colliding galaxy's?</t>
-  </si>
-  <si>
     <t>F03981</t>
   </si>
   <si>
     <t>F02598</t>
   </si>
   <si>
-    <t>Whole bunch at exactly same distance ?</t>
-  </si>
-  <si>
     <t>Front/E03</t>
   </si>
   <si>
-    <t>3 colliding?</t>
-  </si>
-  <si>
     <t>F04782</t>
   </si>
   <si>
     <t>Front/F03</t>
   </si>
   <si>
-    <t>Collisions?</t>
-  </si>
-  <si>
     <t>F03810</t>
   </si>
   <si>
@@ -572,9 +530,6 @@
     <t>Up/D05</t>
   </si>
   <si>
-    <t>mix of 5 Galaxys?</t>
-  </si>
-  <si>
     <t>F01776</t>
   </si>
   <si>
@@ -593,9 +548,6 @@
     <t>F01366</t>
   </si>
   <si>
-    <t>5 galaxies</t>
-  </si>
-  <si>
     <t>F00626</t>
   </si>
   <si>
@@ -623,10 +575,13 @@
     <t>R. Velocity(km/s)</t>
   </si>
   <si>
-    <t>Base Xray distance 800 pc</t>
-  </si>
-  <si>
-    <t>Base Xray distance 1200 pc</t>
+    <t>Base Xray distance 1122 pc</t>
+  </si>
+  <si>
+    <t>Base Xray distance 891 pc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distance to this flash using HR fitting D0 = 1006 pc. </t>
   </si>
 </sst>
 </file>
@@ -635,9 +590,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.000000"/>
-    <numFmt numFmtId="167" formatCode="0.00000"/>
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000000"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -715,7 +670,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -724,14 +679,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -786,7 +740,7 @@
               <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Hubble Diagram (base distance 1000 pc)</a:t>
+              <a:t>Hubble Diagram (base distance 1006 pc)</a:t>
             </a:r>
             <a:endParaRPr lang="en-US">
               <a:effectLst/>
@@ -982,124 +936,124 @@
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>0.45751722576252385</c:v>
+                  <c:v>0.46026232911709897</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.6570980408230686E-2</c:v>
+                  <c:v>9.7150406290680072E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.44766286396430882</c:v>
+                  <c:v>0.4503488411480947</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.30092181440125226</c:v>
+                  <c:v>0.30272734528765977</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.49405292993550265</c:v>
+                  <c:v>0.49701724751511567</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.52595950787258194</c:v>
+                  <c:v>0.52911526491981742</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.56754505383084253</c:v>
+                  <c:v>0.57095032415382752</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.58096404783805922</c:v>
+                  <c:v>0.58444983212508761</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.34202964095267474</c:v>
+                  <c:v>0.34408181879839078</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.29205836242379479</c:v>
+                  <c:v>0.29381071259833758</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.51019682910426278</c:v>
+                  <c:v>0.51325801007888838</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.54441981298728392</c:v>
+                  <c:v>0.54768633186520765</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.4319927921699302</c:v>
+                  <c:v>0.43458474892294979</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.1632162555400275</c:v>
+                  <c:v>0.16419555307326766</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.36176622490806137</c:v>
+                  <c:v>0.36393682225750973</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.54102069663818897</c:v>
+                  <c:v>0.54426682081801814</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.43961850834184896</c:v>
+                  <c:v>0.44225621939190007</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.21010385119115901</c:v>
+                  <c:v>0.21136447429830599</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.23605083863486095</c:v>
+                  <c:v>0.23746714366667013</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.47247502780436362</c:v>
+                  <c:v>0.47530987797118979</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.33895201105472972</c:v>
+                  <c:v>0.34098572312105807</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.56243193110815182</c:v>
+                  <c:v>0.5658065226948007</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.53658602596909488</c:v>
+                  <c:v>0.53980554212490939</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.21096371628767199</c:v>
+                  <c:v>0.21222949858539802</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.16418010884114606</c:v>
+                  <c:v>0.16516518949419293</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.55868650477657777</c:v>
+                  <c:v>0.56203862380523728</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.20758600016589454</c:v>
+                  <c:v>0.20883151616688991</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.56369724638815255</c:v>
+                  <c:v>0.56707942986648141</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.20003051100224875</c:v>
+                  <c:v>0.20123069406826227</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.18659615053868048</c:v>
+                  <c:v>0.18771572744191253</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.44204735836334447</c:v>
+                  <c:v>0.44469964251352456</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.27192442145810469</c:v>
+                  <c:v>0.27355596798685333</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1E-3</c:v>
+                  <c:v>1.0059999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.180091315279445</c:v>
+                  <c:v>0.18117186317112169</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.7711901833292831E-3</c:v>
+                  <c:v>1.7818173244292588E-3</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4.2555132308641351E-2</c:v>
+                  <c:v>4.2810463102493201E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.43546266953567875</c:v>
+                  <c:v>0.43807544555289285</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.32423593091631348</c:v>
+                  <c:v>0.32618134650181135</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.12818640158883637</c:v>
+                  <c:v>0.12895551999836938</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.46446022072518289</c:v>
+                  <c:v>0.46724698204953397</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1578,7 +1532,7 @@
               <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Hubble (Base distance 800 pc)</a:t>
+              <a:t>Hubble (Base distance 891 pc)</a:t>
             </a:r>
             <a:endParaRPr lang="en-US">
               <a:effectLst/>
@@ -1730,124 +1684,124 @@
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>0.36601378061001905</c:v>
+                  <c:v>0.40764784815440874</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.7256784326584546E-2</c:v>
+                  <c:v>8.6044743543733537E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.35813029117144707</c:v>
+                  <c:v>0.39886761179219915</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.24073745152100182</c:v>
+                  <c:v>0.26812133663151577</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.39524234394840208</c:v>
+                  <c:v>0.44020116057253283</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.42076760629806559</c:v>
+                  <c:v>0.46862992151447053</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.45403604306467393</c:v>
+                  <c:v>0.50568264296328069</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.46477123827044742</c:v>
+                  <c:v>0.51763896662371078</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.27362371276213981</c:v>
+                  <c:v>0.30474841008883319</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.23364668993903587</c:v>
+                  <c:v>0.26022400091960118</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.40815746328341018</c:v>
+                  <c:v>0.45458537473189814</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.43553585038982717</c:v>
+                  <c:v>0.48507805337167004</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.34559423373594417</c:v>
+                  <c:v>0.38490557782340784</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.13057300443202199</c:v>
+                  <c:v>0.14542568368616449</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.28941297992644915</c:v>
+                  <c:v>0.32233370639308268</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.43281655731055124</c:v>
+                  <c:v>0.48204944070462646</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.35169480667347913</c:v>
+                  <c:v>0.39170009093258745</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.16808308095292721</c:v>
+                  <c:v>0.18720253141132268</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.18884067090788875</c:v>
+                  <c:v>0.21032129722366114</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.37798002224349092</c:v>
+                  <c:v>0.420975249773688</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.27116160884378376</c:v>
+                  <c:v>0.30200624184976421</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.4499455448865215</c:v>
+                  <c:v>0.50112685061736328</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.42926882077527589</c:v>
+                  <c:v>0.47809814913846349</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.16877097303013761</c:v>
+                  <c:v>0.18796867121231575</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.13134408707291684</c:v>
+                  <c:v>0.14628447697746114</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.44694920382126219</c:v>
+                  <c:v>0.49778967575593075</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.16606880013271563</c:v>
+                  <c:v>0.18495912614781204</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.45095779711052203</c:v>
+                  <c:v>0.50225424653184392</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.160024408801799</c:v>
+                  <c:v>0.17822718530300363</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.14927692043094437</c:v>
+                  <c:v>0.1662571701299643</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.35363788669067558</c:v>
+                  <c:v>0.39386419630173997</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.21753953716648375</c:v>
+                  <c:v>0.24228465951917127</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>8.0000000000000004E-4</c:v>
+                  <c:v>8.9099999999999997E-4</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.14407305222355601</c:v>
+                  <c:v>0.1604613619139855</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.4169521466634264E-3</c:v>
+                  <c:v>1.5781304533463913E-3</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.4044105846913079E-2</c:v>
+                  <c:v>3.7916622886999443E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.34837013562854302</c:v>
+                  <c:v>0.38799723855628981</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.25938874473305079</c:v>
+                  <c:v>0.28889421444643532</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.1025491212710691</c:v>
+                  <c:v>0.11421408381565321</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.37156817658014629</c:v>
+                  <c:v>0.41383405666613793</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2074,7 +2028,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.000000" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2323,14 +2277,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Hubble (Base distance 1200</a:t>
+              <a:rPr lang="en-US" sz="1800"/>
+              <a:t>Hubble (Base distance 1122</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
+              <a:rPr lang="en-US" sz="1800" baseline="0"/>
               <a:t> pc)</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-US" sz="1800"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2478,124 +2432,124 @@
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>0.54902067091502871</c:v>
+                  <c:v>0.51333432730555173</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.11588517648987681</c:v>
+                  <c:v>0.10835264001803482</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.53719543675717063</c:v>
+                  <c:v>0.50227773336795445</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.36110617728150274</c:v>
+                  <c:v>0.33763427575820504</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.59286351592260322</c:v>
+                  <c:v>0.55432738738763387</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.63115140944709835</c:v>
+                  <c:v>0.59012656783303696</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.68105406459701101</c:v>
+                  <c:v>0.63678555039820528</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.69715685740567113</c:v>
+                  <c:v>0.65184166167430246</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.41043556914320967</c:v>
+                  <c:v>0.38375725714890108</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.35047003490855377</c:v>
+                  <c:v>0.32768948263949776</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.61223619492511527</c:v>
+                  <c:v>0.57244084225498282</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.65330377558474073</c:v>
+                  <c:v>0.61083903017173269</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.51839135060391617</c:v>
+                  <c:v>0.48469591281466168</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.19585950664803298</c:v>
+                  <c:v>0.18312863871591084</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.4341194698896737</c:v>
+                  <c:v>0.40590170434684486</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.64922483596582692</c:v>
+                  <c:v>0.60702522162804806</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.52754221001021884</c:v>
+                  <c:v>0.49325196635955448</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.25212462142939085</c:v>
+                  <c:v>0.23573652103648043</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.28326100636183316</c:v>
+                  <c:v>0.26484904094831402</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.56697003336523633</c:v>
+                  <c:v>0.53011698119649597</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.40674241326567567</c:v>
+                  <c:v>0.38030415640340676</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.67491831732978214</c:v>
+                  <c:v>0.63104862670334638</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.64390323116291381</c:v>
+                  <c:v>0.60204952113732435</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.25315645954520638</c:v>
+                  <c:v>0.236701289674768</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.19701613060937526</c:v>
+                  <c:v>0.18421008211976586</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.67042380573189331</c:v>
+                  <c:v>0.62684625835932017</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.24910320019907345</c:v>
+                  <c:v>0.23291149218613369</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.67643669566578302</c:v>
+                  <c:v>0.63246831044750718</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.24003661320269851</c:v>
+                  <c:v>0.22443423334452312</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.22391538064641656</c:v>
+                  <c:v>0.20936088090439947</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.5304568300360134</c:v>
+                  <c:v>0.49597713608367244</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.32630930574972561</c:v>
+                  <c:v>0.30509920087599346</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.1999999999999999E-3</c:v>
+                  <c:v>1.122E-3</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.21610957833533401</c:v>
+                  <c:v>0.20206245574353729</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2.1254282199951401E-3</c:v>
+                  <c:v>1.9872753856954558E-3</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5.106615877036963E-2</c:v>
+                  <c:v>4.7746858450295603E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.52255520344281448</c:v>
+                  <c:v>0.48858911521903164</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.38908311709957616</c:v>
+                  <c:v>0.36379271448810374</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.15382368190660364</c:v>
+                  <c:v>0.14382514258267443</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.55735226487021949</c:v>
+                  <c:v>0.52112436765365522</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2822,7 +2776,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.000000" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5122,8 +5076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B03396F8-2CD2-7545-A67C-2500576C3881}">
   <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5148,10 +5102,10 @@
         <v>89</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
@@ -5160,10 +5114,10 @@
     </row>
     <row r="2" spans="1:14">
       <c r="I2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>90</v>
+        <v>181</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
@@ -5181,16 +5135,16 @@
         <v>5</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="H3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -5198,7 +5152,7 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>6</v>
@@ -5210,23 +5164,23 @@
         <v>337</v>
       </c>
       <c r="F5" s="7">
-        <f>SQRT((70541518*1000000)/D5)</f>
-        <v>457517.22576252383</v>
-      </c>
-      <c r="G5" s="14">
+        <f>SQRT((70541518*1012036)/D5)</f>
+        <v>460262.32911709894</v>
+      </c>
+      <c r="G5" s="13">
         <f>F5/1000000</f>
-        <v>0.45751722576252385</v>
-      </c>
-      <c r="H5" s="15">
+        <v>0.46026232911709897</v>
+      </c>
+      <c r="H5" s="14">
         <v>1669.32</v>
       </c>
       <c r="I5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>8</v>
@@ -5238,23 +5192,23 @@
         <v>7564</v>
       </c>
       <c r="F6" s="7">
-        <f t="shared" ref="F6:F44" si="0">SQRT((70541518*1000000)/D6)</f>
-        <v>96570.98040823068</v>
-      </c>
-      <c r="G6" s="14">
+        <f t="shared" ref="F6:F44" si="0">SQRT((70541518*1012036)/D6)</f>
+        <v>97150.406290680068</v>
+      </c>
+      <c r="G6" s="13">
         <f t="shared" ref="G6:G44" si="1">F6/1000000</f>
-        <v>9.6570980408230686E-2</v>
-      </c>
-      <c r="H6" s="10">
+        <v>9.7150406290680072E-2</v>
+      </c>
+      <c r="H6" s="9">
         <v>358.38</v>
       </c>
       <c r="I6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>10</v>
@@ -5267,24 +5221,24 @@
       </c>
       <c r="F7" s="7">
         <f t="shared" si="0"/>
-        <v>447662.86396430881</v>
-      </c>
-      <c r="G7" s="14">
-        <f t="shared" si="1"/>
-        <v>0.44766286396430882</v>
-      </c>
-      <c r="H7" s="10">
+        <v>450348.84114809468</v>
+      </c>
+      <c r="G7" s="13">
+        <f t="shared" si="1"/>
+        <v>0.4503488411480947</v>
+      </c>
+      <c r="H7" s="9">
         <v>1633.8</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="5"/>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>12</v>
@@ -5297,24 +5251,24 @@
       </c>
       <c r="F8" s="7">
         <f t="shared" si="0"/>
-        <v>300921.81440125225</v>
-      </c>
-      <c r="G8" s="14">
-        <f t="shared" si="1"/>
-        <v>0.30092181440125226</v>
+        <v>302727.34528765979</v>
+      </c>
+      <c r="G8" s="13">
+        <f t="shared" si="1"/>
+        <v>0.30272734528765977</v>
       </c>
       <c r="H8">
         <v>1132.26</v>
       </c>
-      <c r="I8" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="J8" s="12"/>
+      <c r="I8" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="J8" s="11"/>
       <c r="K8" s="5"/>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>14</v>
@@ -5327,26 +5281,24 @@
       </c>
       <c r="F9" s="7">
         <f t="shared" si="0"/>
-        <v>494052.92993550265</v>
-      </c>
-      <c r="G9" s="14">
-        <f t="shared" si="1"/>
-        <v>0.49405292993550265</v>
+        <v>497017.24751511565</v>
+      </c>
+      <c r="G9" s="13">
+        <f t="shared" si="1"/>
+        <v>0.49701724751511567</v>
       </c>
       <c r="H9">
         <v>1891.78</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>133</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="J9" s="11"/>
       <c r="K9" s="5"/>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="2" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>16</v>
@@ -5359,26 +5311,24 @@
       </c>
       <c r="F10" s="7">
         <f t="shared" si="0"/>
-        <v>525959.50787258195</v>
-      </c>
-      <c r="G10" s="14">
-        <f t="shared" si="1"/>
-        <v>0.52595950787258194</v>
+        <v>529115.26491981745</v>
+      </c>
+      <c r="G10" s="13">
+        <f t="shared" si="1"/>
+        <v>0.52911526491981742</v>
       </c>
       <c r="H10">
         <v>1875.41</v>
       </c>
-      <c r="I10" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>138</v>
-      </c>
+      <c r="I10" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J10" s="11"/>
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>18</v>
@@ -5389,28 +5339,28 @@
       <c r="D11" s="2">
         <v>219</v>
       </c>
-      <c r="F11" s="8">
-        <f t="shared" si="0"/>
-        <v>567545.05383084249</v>
-      </c>
-      <c r="G11" s="14">
-        <f t="shared" si="1"/>
-        <v>0.56754505383084253</v>
+      <c r="F11" s="7">
+        <f t="shared" si="0"/>
+        <v>570950.3241538275</v>
+      </c>
+      <c r="G11" s="13">
+        <f t="shared" si="1"/>
+        <v>0.57095032415382752</v>
       </c>
       <c r="H11">
         <v>2232.39</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="J11" s="12"/>
-      <c r="K11" s="9" t="s">
-        <v>96</v>
+        <v>110</v>
+      </c>
+      <c r="J11" s="11"/>
+      <c r="K11" s="8" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="2" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>20</v>
@@ -5421,30 +5371,28 @@
       <c r="D12" s="2">
         <v>209</v>
       </c>
-      <c r="F12" s="8">
-        <f t="shared" si="0"/>
-        <v>580964.04783805925</v>
-      </c>
-      <c r="G12" s="14">
-        <f t="shared" si="1"/>
-        <v>0.58096404783805922</v>
+      <c r="F12" s="7">
+        <f t="shared" si="0"/>
+        <v>584449.83212508762</v>
+      </c>
+      <c r="G12" s="13">
+        <f t="shared" si="1"/>
+        <v>0.58444983212508761</v>
       </c>
       <c r="H12">
         <v>2138.14</v>
       </c>
-      <c r="I12" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="J12" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>97</v>
+      <c r="I12" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="J12" s="11"/>
+      <c r="K12" s="8" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="2" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>22</v>
@@ -5457,25 +5405,23 @@
       </c>
       <c r="F13" s="7">
         <f t="shared" si="0"/>
-        <v>342029.64095267473</v>
-      </c>
-      <c r="G13" s="14">
-        <f t="shared" si="1"/>
-        <v>0.34202964095267474</v>
+        <v>344081.8187983908</v>
+      </c>
+      <c r="G13" s="13">
+        <f t="shared" si="1"/>
+        <v>0.34408181879839078</v>
       </c>
       <c r="H13">
         <v>1295.8900000000001</v>
       </c>
-      <c r="I13" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="J13" s="12" t="s">
-        <v>138</v>
-      </c>
+      <c r="I13" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="J13" s="11"/>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>24</v>
@@ -5488,22 +5434,22 @@
       </c>
       <c r="F14" s="7">
         <f t="shared" si="0"/>
-        <v>292058.36242379481</v>
-      </c>
-      <c r="G14" s="14">
-        <f t="shared" si="1"/>
-        <v>0.29205836242379479</v>
+        <v>293810.71259833756</v>
+      </c>
+      <c r="G14" s="13">
+        <f t="shared" si="1"/>
+        <v>0.29381071259833758</v>
       </c>
       <c r="H14">
         <v>1066.26</v>
       </c>
       <c r="I14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="2" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>26</v>
@@ -5516,25 +5462,22 @@
       </c>
       <c r="F15" s="7">
         <f t="shared" si="0"/>
-        <v>510196.82910426275</v>
-      </c>
-      <c r="G15" s="14">
-        <f t="shared" si="1"/>
-        <v>0.51019682910426278</v>
+        <v>513258.01007888833</v>
+      </c>
+      <c r="G15" s="13">
+        <f t="shared" si="1"/>
+        <v>0.51325801007888838</v>
       </c>
       <c r="H15">
         <v>1939.77</v>
       </c>
       <c r="I15" t="s">
-        <v>135</v>
-      </c>
-      <c r="J15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>28</v>
@@ -5547,25 +5490,22 @@
       </c>
       <c r="F16" s="7">
         <f t="shared" si="0"/>
-        <v>544419.81298728392</v>
-      </c>
-      <c r="G16" s="14">
-        <f t="shared" si="1"/>
-        <v>0.54441981298728392</v>
+        <v>547686.33186520764</v>
+      </c>
+      <c r="G16" s="13">
+        <f t="shared" si="1"/>
+        <v>0.54768633186520765</v>
       </c>
       <c r="H16">
         <v>2078.86</v>
       </c>
       <c r="I16" t="s">
-        <v>115</v>
-      </c>
-      <c r="J16" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="2" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>30</v>
@@ -5578,25 +5518,22 @@
       </c>
       <c r="F17" s="7">
         <f t="shared" si="0"/>
-        <v>431992.79216993018</v>
-      </c>
-      <c r="G17" s="14">
-        <f t="shared" si="1"/>
-        <v>0.4319927921699302</v>
+        <v>434584.74892294977</v>
+      </c>
+      <c r="G17" s="13">
+        <f t="shared" si="1"/>
+        <v>0.43458474892294979</v>
       </c>
       <c r="H17">
         <v>1598.71</v>
       </c>
       <c r="I17" t="s">
-        <v>137</v>
-      </c>
-      <c r="J17" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="2" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>32</v>
@@ -5609,25 +5546,22 @@
       </c>
       <c r="F18" s="7">
         <f t="shared" si="0"/>
-        <v>163216.25554002749</v>
-      </c>
-      <c r="G18" s="14">
-        <f t="shared" si="1"/>
-        <v>0.1632162555400275</v>
+        <v>164195.55307326766</v>
+      </c>
+      <c r="G18" s="13">
+        <f t="shared" si="1"/>
+        <v>0.16419555307326766</v>
       </c>
       <c r="H18">
         <v>597.91</v>
       </c>
       <c r="I18" t="s">
-        <v>153</v>
-      </c>
-      <c r="J18" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="2" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>34</v>
@@ -5640,25 +5574,22 @@
       </c>
       <c r="F19" s="7">
         <f t="shared" si="0"/>
-        <v>361766.22490806138</v>
-      </c>
-      <c r="G19" s="14">
-        <f t="shared" si="1"/>
-        <v>0.36176622490806137</v>
+        <v>363936.82225750975</v>
+      </c>
+      <c r="G19" s="13">
+        <f t="shared" si="1"/>
+        <v>0.36393682225750973</v>
       </c>
       <c r="H19">
         <v>1257.5899999999999</v>
       </c>
       <c r="I19" t="s">
-        <v>161</v>
-      </c>
-      <c r="J19" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="2" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>36</v>
@@ -5671,22 +5602,22 @@
       </c>
       <c r="F20" s="7">
         <f t="shared" si="0"/>
-        <v>541020.69663818902</v>
-      </c>
-      <c r="G20" s="14">
-        <f t="shared" si="1"/>
-        <v>0.54102069663818897</v>
+        <v>544266.82081801817</v>
+      </c>
+      <c r="G20" s="13">
+        <f t="shared" si="1"/>
+        <v>0.54426682081801814</v>
       </c>
       <c r="H20">
         <v>1988.61</v>
       </c>
       <c r="I20" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="2" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>38</v>
@@ -5699,25 +5630,22 @@
       </c>
       <c r="F21" s="7">
         <f t="shared" si="0"/>
-        <v>439618.50834184897</v>
-      </c>
-      <c r="G21" s="14">
-        <f t="shared" si="1"/>
-        <v>0.43961850834184896</v>
+        <v>442256.21939190006</v>
+      </c>
+      <c r="G21" s="13">
+        <f t="shared" si="1"/>
+        <v>0.44225621939190007</v>
       </c>
       <c r="H21">
         <v>1624.26</v>
       </c>
       <c r="I21" t="s">
-        <v>142</v>
-      </c>
-      <c r="J21" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="2" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>40</v>
@@ -5730,25 +5658,22 @@
       </c>
       <c r="F22" s="7">
         <f t="shared" si="0"/>
-        <v>210103.85119115902</v>
-      </c>
-      <c r="G22" s="14">
-        <f t="shared" si="1"/>
-        <v>0.21010385119115901</v>
+        <v>211364.47429830598</v>
+      </c>
+      <c r="G22" s="13">
+        <f t="shared" si="1"/>
+        <v>0.21136447429830599</v>
       </c>
       <c r="H22">
         <v>784.35</v>
       </c>
       <c r="I22" t="s">
-        <v>145</v>
-      </c>
-      <c r="J22" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="2" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>42</v>
@@ -5761,22 +5686,22 @@
       </c>
       <c r="F23" s="7">
         <f t="shared" si="0"/>
-        <v>236050.83863486096</v>
-      </c>
-      <c r="G23" s="14">
-        <f t="shared" si="1"/>
-        <v>0.23605083863486095</v>
+        <v>237467.14366667013</v>
+      </c>
+      <c r="G23" s="13">
+        <f t="shared" si="1"/>
+        <v>0.23746714366667013</v>
       </c>
       <c r="H23">
         <v>868.09</v>
       </c>
       <c r="I23" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="2" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>44</v>
@@ -5789,25 +5714,22 @@
       </c>
       <c r="F24" s="7">
         <f t="shared" si="0"/>
-        <v>472475.02780436364</v>
-      </c>
-      <c r="G24" s="14">
-        <f t="shared" si="1"/>
-        <v>0.47247502780436362</v>
+        <v>475309.8779711898</v>
+      </c>
+      <c r="G24" s="13">
+        <f t="shared" si="1"/>
+        <v>0.47530987797118979</v>
       </c>
       <c r="H24">
         <v>1747.2</v>
       </c>
       <c r="I24" t="s">
-        <v>164</v>
-      </c>
-      <c r="J24" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="2" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>46</v>
@@ -5820,26 +5742,24 @@
       </c>
       <c r="F25" s="7">
         <f t="shared" si="0"/>
-        <v>338952.01105472969</v>
-      </c>
-      <c r="G25" s="14">
-        <f t="shared" si="1"/>
-        <v>0.33895201105472972</v>
-      </c>
-      <c r="H25" s="12">
+        <v>340985.72312105808</v>
+      </c>
+      <c r="G25" s="13">
+        <f t="shared" si="1"/>
+        <v>0.34098572312105807</v>
+      </c>
+      <c r="H25" s="11">
         <v>1257.58</v>
       </c>
-      <c r="I25" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="J25" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="K25" s="12"/>
+      <c r="I25" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="2" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>48</v>
@@ -5852,25 +5772,25 @@
       </c>
       <c r="F26" s="7">
         <f t="shared" si="0"/>
-        <v>562431.9311081518</v>
-      </c>
-      <c r="G26" s="14">
-        <f t="shared" si="1"/>
-        <v>0.56243193110815182</v>
-      </c>
-      <c r="H26" s="12">
+        <v>565806.52269480075</v>
+      </c>
+      <c r="G26" s="13">
+        <f t="shared" si="1"/>
+        <v>0.5658065226948007</v>
+      </c>
+      <c r="H26" s="11">
         <v>2112.79</v>
       </c>
-      <c r="I26" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
+      <c r="I26" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
       <c r="L26" s="3"/>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="2" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>50</v>
@@ -5883,27 +5803,25 @@
       </c>
       <c r="F27" s="7">
         <f t="shared" si="0"/>
-        <v>536586.02596909483</v>
-      </c>
-      <c r="G27" s="14">
-        <f t="shared" si="1"/>
-        <v>0.53658602596909488</v>
-      </c>
-      <c r="H27" s="12">
+        <v>539805.54212490935</v>
+      </c>
+      <c r="G27" s="13">
+        <f t="shared" si="1"/>
+        <v>0.53980554212490939</v>
+      </c>
+      <c r="H27" s="11">
         <v>1870.01</v>
       </c>
-      <c r="I27" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="J27" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="K27" s="12"/>
+      <c r="I27" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
       <c r="L27" s="3"/>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="2" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>52</v>
@@ -5916,22 +5834,22 @@
       </c>
       <c r="F28" s="7">
         <f t="shared" si="0"/>
-        <v>210963.716287672</v>
-      </c>
-      <c r="G28" s="14">
-        <f t="shared" si="1"/>
-        <v>0.21096371628767199</v>
+        <v>212229.49858539802</v>
+      </c>
+      <c r="G28" s="13">
+        <f t="shared" si="1"/>
+        <v>0.21222949858539802</v>
       </c>
       <c r="H28">
         <v>775.75</v>
       </c>
       <c r="I28" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="2" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>54</v>
@@ -5944,25 +5862,22 @@
       </c>
       <c r="F29" s="7">
         <f t="shared" si="0"/>
-        <v>164180.10884114605</v>
-      </c>
-      <c r="G29" s="14">
-        <f t="shared" si="1"/>
-        <v>0.16418010884114606</v>
+        <v>165165.18949419292</v>
+      </c>
+      <c r="G29" s="13">
+        <f t="shared" si="1"/>
+        <v>0.16516518949419293</v>
       </c>
       <c r="H29">
         <v>604.33000000000004</v>
       </c>
       <c r="I29" t="s">
-        <v>169</v>
-      </c>
-      <c r="J29" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="2" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>56</v>
@@ -5975,22 +5890,22 @@
       </c>
       <c r="F30" s="7">
         <f t="shared" si="0"/>
-        <v>558686.50477657781</v>
-      </c>
-      <c r="G30" s="14">
-        <f t="shared" si="1"/>
-        <v>0.55868650477657777</v>
+        <v>562038.62380523724</v>
+      </c>
+      <c r="G30" s="13">
+        <f t="shared" si="1"/>
+        <v>0.56203862380523728</v>
       </c>
       <c r="H30">
         <v>1996.23</v>
       </c>
       <c r="I30" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>58</v>
@@ -6003,25 +5918,22 @@
       </c>
       <c r="F31" s="7">
         <f t="shared" si="0"/>
-        <v>207586.00016589454</v>
-      </c>
-      <c r="G31" s="14">
-        <f t="shared" si="1"/>
-        <v>0.20758600016589454</v>
+        <v>208831.51616688992</v>
+      </c>
+      <c r="G31" s="13">
+        <f t="shared" si="1"/>
+        <v>0.20883151616688991</v>
       </c>
       <c r="H31">
         <v>765.48</v>
       </c>
       <c r="I31" t="s">
-        <v>118</v>
-      </c>
-      <c r="J31" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>60</v>
@@ -6032,30 +5944,27 @@
       <c r="D32" s="2">
         <v>222</v>
       </c>
-      <c r="F32" s="8">
-        <f t="shared" si="0"/>
-        <v>563697.24638815259</v>
-      </c>
-      <c r="G32" s="14">
-        <f t="shared" si="1"/>
-        <v>0.56369724638815255</v>
+      <c r="F32" s="7">
+        <f t="shared" si="0"/>
+        <v>567079.42986648146</v>
+      </c>
+      <c r="G32" s="13">
+        <f t="shared" si="1"/>
+        <v>0.56707942986648141</v>
       </c>
       <c r="H32">
         <v>2174.2199999999998</v>
       </c>
       <c r="I32" t="s">
-        <v>121</v>
-      </c>
-      <c r="J32" t="s">
-        <v>122</v>
-      </c>
-      <c r="M32" s="9" t="s">
-        <v>96</v>
+        <v>118</v>
+      </c>
+      <c r="M32" s="8" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="2" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>62</v>
@@ -6068,25 +5977,22 @@
       </c>
       <c r="F33" s="7">
         <f t="shared" si="0"/>
-        <v>200030.51100224876</v>
-      </c>
-      <c r="G33" s="14">
-        <f t="shared" si="1"/>
-        <v>0.20003051100224875</v>
+        <v>201230.69406826227</v>
+      </c>
+      <c r="G33" s="13">
+        <f t="shared" si="1"/>
+        <v>0.20123069406826227</v>
       </c>
       <c r="H33">
         <v>751.62</v>
       </c>
       <c r="I33" t="s">
-        <v>172</v>
-      </c>
-      <c r="J33" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>64</v>
@@ -6099,25 +6005,22 @@
       </c>
       <c r="F34" s="7">
         <f t="shared" si="0"/>
-        <v>186596.15053868046</v>
-      </c>
-      <c r="G34" s="14">
-        <f t="shared" si="1"/>
-        <v>0.18659615053868048</v>
+        <v>187715.72744191255</v>
+      </c>
+      <c r="G34" s="13">
+        <f t="shared" si="1"/>
+        <v>0.18771572744191253</v>
       </c>
       <c r="H34">
         <v>680.71</v>
       </c>
       <c r="I34" t="s">
-        <v>124</v>
-      </c>
-      <c r="J34" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>66</v>
@@ -6130,25 +6033,22 @@
       </c>
       <c r="F35" s="7">
         <f t="shared" si="0"/>
-        <v>442047.35836334445</v>
-      </c>
-      <c r="G35" s="14">
-        <f t="shared" si="1"/>
-        <v>0.44204735836334447</v>
+        <v>444699.64251352457</v>
+      </c>
+      <c r="G35" s="13">
+        <f t="shared" si="1"/>
+        <v>0.44469964251352456</v>
       </c>
       <c r="H35">
         <v>1678.67</v>
       </c>
       <c r="I35" t="s">
-        <v>127</v>
-      </c>
-      <c r="J35" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="2" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>68</v>
@@ -6161,20 +6061,17 @@
       </c>
       <c r="F36" s="7">
         <f t="shared" si="0"/>
-        <v>271924.42145810468</v>
-      </c>
-      <c r="G36" s="14">
-        <f t="shared" si="1"/>
-        <v>0.27192442145810469</v>
+        <v>273555.96798685333</v>
+      </c>
+      <c r="G36" s="13">
+        <f t="shared" si="1"/>
+        <v>0.27355596798685333</v>
       </c>
       <c r="H36">
         <v>1004.24</v>
       </c>
       <c r="I36" t="s">
-        <v>174</v>
-      </c>
-      <c r="J36" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -6191,23 +6088,23 @@
         <v>70541518</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F37" s="7">
         <f t="shared" si="0"/>
-        <v>1000</v>
-      </c>
-      <c r="G37" s="14">
-        <f t="shared" si="1"/>
-        <v>1E-3</v>
+        <v>1006</v>
+      </c>
+      <c r="G37" s="13">
+        <f t="shared" si="1"/>
+        <v>1.0059999999999999E-3</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="2" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>72</v>
@@ -6220,17 +6117,17 @@
       </c>
       <c r="F38" s="7">
         <f t="shared" si="0"/>
-        <v>180091.315279445</v>
-      </c>
-      <c r="G38" s="14">
-        <f t="shared" si="1"/>
-        <v>0.180091315279445</v>
+        <v>181171.86317112169</v>
+      </c>
+      <c r="G38" s="13">
+        <f t="shared" si="1"/>
+        <v>0.18117186317112169</v>
       </c>
       <c r="H38">
         <v>657.99</v>
       </c>
       <c r="I38" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -6247,23 +6144,23 @@
         <v>22486114</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F39" s="7">
         <f t="shared" si="0"/>
-        <v>1771.1901833292832</v>
-      </c>
-      <c r="G39" s="14">
-        <f t="shared" si="1"/>
-        <v>1.7711901833292831E-3</v>
+        <v>1781.8173244292589</v>
+      </c>
+      <c r="G39" s="13">
+        <f t="shared" si="1"/>
+        <v>1.7818173244292588E-3</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="2" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>76</v>
@@ -6276,25 +6173,22 @@
       </c>
       <c r="F40" s="7">
         <f t="shared" si="0"/>
-        <v>42555.132308641354</v>
-      </c>
-      <c r="G40" s="14">
-        <f t="shared" si="1"/>
-        <v>4.2555132308641351E-2</v>
+        <v>42810.463102493202</v>
+      </c>
+      <c r="G40" s="13">
+        <f t="shared" si="1"/>
+        <v>4.2810463102493201E-2</v>
       </c>
       <c r="H40">
         <v>158.31</v>
       </c>
       <c r="I40" t="s">
-        <v>176</v>
-      </c>
-      <c r="J40" t="s">
-        <v>138</v>
+        <v>162</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="2" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>78</v>
@@ -6307,25 +6201,22 @@
       </c>
       <c r="F41" s="7">
         <f t="shared" si="0"/>
-        <v>435462.66953567875</v>
-      </c>
-      <c r="G41" s="14">
-        <f t="shared" si="1"/>
-        <v>0.43546266953567875</v>
+        <v>438075.44555289287</v>
+      </c>
+      <c r="G41" s="13">
+        <f t="shared" si="1"/>
+        <v>0.43807544555289285</v>
       </c>
       <c r="H41">
         <v>1587.27</v>
       </c>
       <c r="I41" t="s">
-        <v>159</v>
-      </c>
-      <c r="J41" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>80</v>
@@ -6338,25 +6229,22 @@
       </c>
       <c r="F42" s="7">
         <f t="shared" si="0"/>
-        <v>324235.93091631349</v>
-      </c>
-      <c r="G42" s="14">
-        <f t="shared" si="1"/>
-        <v>0.32423593091631348</v>
+        <v>326181.34650181135</v>
+      </c>
+      <c r="G42" s="13">
+        <f t="shared" si="1"/>
+        <v>0.32618134650181135</v>
       </c>
       <c r="H42">
         <v>1198.6099999999999</v>
       </c>
       <c r="I42" t="s">
-        <v>129</v>
-      </c>
-      <c r="J42" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="2" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>82</v>
@@ -6369,25 +6257,22 @@
       </c>
       <c r="F43" s="7">
         <f t="shared" si="0"/>
-        <v>128186.40158883638</v>
-      </c>
-      <c r="G43" s="14">
-        <f t="shared" si="1"/>
-        <v>0.12818640158883637</v>
+        <v>128955.51999836939</v>
+      </c>
+      <c r="G43" s="13">
+        <f t="shared" si="1"/>
+        <v>0.12895551999836938</v>
       </c>
       <c r="H43">
         <v>464</v>
       </c>
       <c r="I43" t="s">
-        <v>186</v>
-      </c>
-      <c r="J43" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="2" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>84</v>
@@ -6400,20 +6285,17 @@
       </c>
       <c r="F44" s="7">
         <f t="shared" si="0"/>
-        <v>464460.22072518291</v>
-      </c>
-      <c r="G44" s="14">
-        <f t="shared" si="1"/>
-        <v>0.46446022072518289</v>
+        <v>467246.98204953398</v>
+      </c>
+      <c r="G44" s="13">
+        <f t="shared" si="1"/>
+        <v>0.46724698204953397</v>
       </c>
       <c r="H44">
         <v>1752.85</v>
       </c>
       <c r="I44" t="s">
-        <v>188</v>
-      </c>
-      <c r="J44" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -6429,7 +6311,7 @@
         <v>86</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -6437,7 +6319,7 @@
         <v>87</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C50" s="5"/>
     </row>
@@ -6451,9 +6333,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EED194A9-1229-294B-981B-16EF6FD1EE09}">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G69" sqref="G69"/>
-    </sheetView>
+    <sheetView topLeftCell="A46" zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -6466,36 +6346,36 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="G1" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="B3" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="C3" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="D3" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="G3" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="H3" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="I3" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="J3" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -6503,28 +6383,28 @@
         <v>337</v>
       </c>
       <c r="B6">
-        <f>SQRT((70541518*640000)/A6)</f>
-        <v>366013.78061001905</v>
-      </c>
-      <c r="C6" s="13">
-        <f>B6/1000000</f>
-        <v>0.36601378061001905</v>
-      </c>
-      <c r="D6" s="15">
+        <f>SQRT((70541518*793881)/A6)</f>
+        <v>407647.84815440874</v>
+      </c>
+      <c r="C6" s="12">
+        <f t="shared" ref="C6:C45" si="0">B6/1000000</f>
+        <v>0.40764784815440874</v>
+      </c>
+      <c r="D6" s="14">
         <v>1669.32</v>
       </c>
       <c r="G6" s="2">
         <v>337</v>
       </c>
       <c r="H6">
-        <f>SQRT((70541518*1440000)/G6)</f>
-        <v>549020.67091502866</v>
-      </c>
-      <c r="I6" s="13">
-        <f>H6/1000000</f>
-        <v>0.54902067091502871</v>
-      </c>
-      <c r="J6" s="15">
+        <f>SQRT((70541518*1258884)/G6)</f>
+        <v>513334.32730555173</v>
+      </c>
+      <c r="I6" s="12">
+        <f t="shared" ref="I6:I45" si="1">H6/1000000</f>
+        <v>0.51333432730555173</v>
+      </c>
+      <c r="J6" s="14">
         <v>1669.32</v>
       </c>
     </row>
@@ -6533,28 +6413,28 @@
         <v>7564</v>
       </c>
       <c r="B7">
-        <f>SQRT((70541518*640000)/A7)</f>
-        <v>77256.784326584544</v>
-      </c>
-      <c r="C7" s="13">
-        <f>B7/1000000</f>
-        <v>7.7256784326584546E-2</v>
-      </c>
-      <c r="D7" s="10">
+        <f t="shared" ref="B7:B45" si="2">SQRT((70541518*793881)/A7)</f>
+        <v>86044.743543733537</v>
+      </c>
+      <c r="C7" s="12">
+        <f t="shared" si="0"/>
+        <v>8.6044743543733537E-2</v>
+      </c>
+      <c r="D7" s="9">
         <v>358.38</v>
       </c>
       <c r="G7" s="2">
         <v>7564</v>
       </c>
       <c r="H7">
-        <f t="shared" ref="H7:H45" si="0">SQRT((70541518*1440000)/G7)</f>
-        <v>115885.17648987682</v>
-      </c>
-      <c r="I7" s="13">
-        <f>H7/1000000</f>
-        <v>0.11588517648987681</v>
-      </c>
-      <c r="J7" s="10">
+        <f t="shared" ref="H7:H45" si="3">SQRT((70541518*1258884)/G7)</f>
+        <v>108352.64001803483</v>
+      </c>
+      <c r="I7" s="12">
+        <f t="shared" si="1"/>
+        <v>0.10835264001803482</v>
+      </c>
+      <c r="J7" s="9">
         <v>358.38</v>
       </c>
     </row>
@@ -6563,28 +6443,28 @@
         <v>352</v>
       </c>
       <c r="B8">
-        <f>SQRT((70541518*640000)/A8)</f>
-        <v>358130.29117144708</v>
-      </c>
-      <c r="C8" s="13">
-        <f>B8/1000000</f>
-        <v>0.35813029117144707</v>
-      </c>
-      <c r="D8" s="10">
+        <f t="shared" si="2"/>
+        <v>398867.61179219914</v>
+      </c>
+      <c r="C8" s="12">
+        <f t="shared" si="0"/>
+        <v>0.39886761179219915</v>
+      </c>
+      <c r="D8" s="9">
         <v>1633.8</v>
       </c>
       <c r="G8" s="2">
         <v>352</v>
       </c>
       <c r="H8">
-        <f t="shared" si="0"/>
-        <v>537195.4367571706</v>
-      </c>
-      <c r="I8" s="13">
-        <f>H8/1000000</f>
-        <v>0.53719543675717063</v>
-      </c>
-      <c r="J8" s="10">
+        <f t="shared" si="3"/>
+        <v>502277.7333679545</v>
+      </c>
+      <c r="I8" s="12">
+        <f t="shared" si="1"/>
+        <v>0.50227773336795445</v>
+      </c>
+      <c r="J8" s="9">
         <v>1633.8</v>
       </c>
     </row>
@@ -6593,12 +6473,12 @@
         <v>779</v>
       </c>
       <c r="B9">
-        <f>SQRT((70541518*640000)/A9)</f>
-        <v>240737.45152100181</v>
-      </c>
-      <c r="C9" s="13">
-        <f>B9/1000000</f>
-        <v>0.24073745152100182</v>
+        <f t="shared" si="2"/>
+        <v>268121.33663151576</v>
+      </c>
+      <c r="C9" s="12">
+        <f t="shared" si="0"/>
+        <v>0.26812133663151577</v>
       </c>
       <c r="D9">
         <v>1132.26</v>
@@ -6607,12 +6487,12 @@
         <v>779</v>
       </c>
       <c r="H9">
-        <f t="shared" si="0"/>
-        <v>361106.17728150275</v>
-      </c>
-      <c r="I9" s="13">
-        <f>H9/1000000</f>
-        <v>0.36110617728150274</v>
+        <f t="shared" si="3"/>
+        <v>337634.27575820504</v>
+      </c>
+      <c r="I9" s="12">
+        <f t="shared" si="1"/>
+        <v>0.33763427575820504</v>
       </c>
       <c r="J9">
         <v>1132.26</v>
@@ -6623,12 +6503,12 @@
         <v>289</v>
       </c>
       <c r="B10">
-        <f>SQRT((70541518*640000)/A10)</f>
-        <v>395242.34394840209</v>
-      </c>
-      <c r="C10" s="13">
-        <f>B10/1000000</f>
-        <v>0.39524234394840208</v>
+        <f t="shared" si="2"/>
+        <v>440201.16057253286</v>
+      </c>
+      <c r="C10" s="12">
+        <f t="shared" si="0"/>
+        <v>0.44020116057253283</v>
       </c>
       <c r="D10">
         <v>1891.78</v>
@@ -6637,12 +6517,12 @@
         <v>289</v>
       </c>
       <c r="H10">
-        <f t="shared" si="0"/>
-        <v>592863.5159226032</v>
-      </c>
-      <c r="I10" s="13">
-        <f>H10/1000000</f>
-        <v>0.59286351592260322</v>
+        <f t="shared" si="3"/>
+        <v>554327.38738763391</v>
+      </c>
+      <c r="I10" s="12">
+        <f t="shared" si="1"/>
+        <v>0.55432738738763387</v>
       </c>
       <c r="J10">
         <v>1891.78</v>
@@ -6653,12 +6533,12 @@
         <v>255</v>
       </c>
       <c r="B11">
-        <f>SQRT((70541518*640000)/A11)</f>
-        <v>420767.60629806557</v>
-      </c>
-      <c r="C11" s="13">
-        <f>B11/1000000</f>
-        <v>0.42076760629806559</v>
+        <f t="shared" si="2"/>
+        <v>468629.92151447054</v>
+      </c>
+      <c r="C11" s="12">
+        <f t="shared" si="0"/>
+        <v>0.46862992151447053</v>
       </c>
       <c r="D11">
         <v>1875.41</v>
@@ -6667,12 +6547,12 @@
         <v>255</v>
       </c>
       <c r="H11">
-        <f t="shared" si="0"/>
-        <v>631151.40944709838</v>
-      </c>
-      <c r="I11" s="13">
-        <f>H11/1000000</f>
-        <v>0.63115140944709835</v>
+        <f t="shared" si="3"/>
+        <v>590126.567833037</v>
+      </c>
+      <c r="I11" s="12">
+        <f t="shared" si="1"/>
+        <v>0.59012656783303696</v>
       </c>
       <c r="J11">
         <v>1875.41</v>
@@ -6683,12 +6563,12 @@
         <v>219</v>
       </c>
       <c r="B12">
-        <f>SQRT((70541518*640000)/A12)</f>
-        <v>454036.04306467396</v>
-      </c>
-      <c r="C12" s="13">
-        <f>B12/1000000</f>
-        <v>0.45403604306467393</v>
+        <f t="shared" si="2"/>
+        <v>505682.64296328067</v>
+      </c>
+      <c r="C12" s="12">
+        <f t="shared" si="0"/>
+        <v>0.50568264296328069</v>
       </c>
       <c r="D12">
         <v>2232.39</v>
@@ -6697,12 +6577,12 @@
         <v>219</v>
       </c>
       <c r="H12">
-        <f t="shared" si="0"/>
-        <v>681054.06459701096</v>
-      </c>
-      <c r="I12" s="13">
-        <f>H12/1000000</f>
-        <v>0.68105406459701101</v>
+        <f t="shared" si="3"/>
+        <v>636785.55039820529</v>
+      </c>
+      <c r="I12" s="12">
+        <f t="shared" si="1"/>
+        <v>0.63678555039820528</v>
       </c>
       <c r="J12">
         <v>2232.39</v>
@@ -6713,12 +6593,12 @@
         <v>209</v>
       </c>
       <c r="B13">
-        <f>SQRT((70541518*640000)/A13)</f>
-        <v>464771.23827044741</v>
-      </c>
-      <c r="C13" s="13">
-        <f>B13/1000000</f>
-        <v>0.46477123827044742</v>
+        <f t="shared" si="2"/>
+        <v>517638.96662371076</v>
+      </c>
+      <c r="C13" s="12">
+        <f t="shared" si="0"/>
+        <v>0.51763896662371078</v>
       </c>
       <c r="D13">
         <v>2138.14</v>
@@ -6727,12 +6607,12 @@
         <v>209</v>
       </c>
       <c r="H13">
-        <f t="shared" si="0"/>
-        <v>697156.85740567115</v>
-      </c>
-      <c r="I13" s="13">
-        <f>H13/1000000</f>
-        <v>0.69715685740567113</v>
+        <f t="shared" si="3"/>
+        <v>651841.66167430242</v>
+      </c>
+      <c r="I13" s="12">
+        <f t="shared" si="1"/>
+        <v>0.65184166167430246</v>
       </c>
       <c r="J13">
         <v>2138.14</v>
@@ -6743,12 +6623,12 @@
         <v>603</v>
       </c>
       <c r="B14">
-        <f>SQRT((70541518*640000)/A14)</f>
-        <v>273623.7127621398</v>
-      </c>
-      <c r="C14" s="13">
-        <f>B14/1000000</f>
-        <v>0.27362371276213981</v>
+        <f t="shared" si="2"/>
+        <v>304748.41008883319</v>
+      </c>
+      <c r="C14" s="12">
+        <f t="shared" si="0"/>
+        <v>0.30474841008883319</v>
       </c>
       <c r="D14">
         <v>1295.8900000000001</v>
@@ -6757,12 +6637,12 @@
         <v>603</v>
       </c>
       <c r="H14">
-        <f t="shared" si="0"/>
-        <v>410435.56914320966</v>
-      </c>
-      <c r="I14" s="13">
-        <f>H14/1000000</f>
-        <v>0.41043556914320967</v>
+        <f t="shared" si="3"/>
+        <v>383757.25714890106</v>
+      </c>
+      <c r="I14" s="12">
+        <f t="shared" si="1"/>
+        <v>0.38375725714890108</v>
       </c>
       <c r="J14">
         <v>1295.8900000000001</v>
@@ -6773,12 +6653,12 @@
         <v>827</v>
       </c>
       <c r="B15">
-        <f>SQRT((70541518*640000)/A15)</f>
-        <v>233646.68993903586</v>
-      </c>
-      <c r="C15" s="13">
-        <f>B15/1000000</f>
-        <v>0.23364668993903587</v>
+        <f t="shared" si="2"/>
+        <v>260224.00091960118</v>
+      </c>
+      <c r="C15" s="12">
+        <f t="shared" si="0"/>
+        <v>0.26022400091960118</v>
       </c>
       <c r="D15">
         <v>1066.26</v>
@@ -6787,12 +6667,12 @@
         <v>827</v>
       </c>
       <c r="H15">
-        <f t="shared" si="0"/>
-        <v>350470.03490855376</v>
-      </c>
-      <c r="I15" s="13">
-        <f>H15/1000000</f>
-        <v>0.35047003490855377</v>
+        <f t="shared" si="3"/>
+        <v>327689.48263949779</v>
+      </c>
+      <c r="I15" s="12">
+        <f t="shared" si="1"/>
+        <v>0.32768948263949776</v>
       </c>
       <c r="J15">
         <v>1066.26</v>
@@ -6803,12 +6683,12 @@
         <v>271</v>
       </c>
       <c r="B16">
-        <f>SQRT((70541518*640000)/A16)</f>
-        <v>408157.46328341018</v>
-      </c>
-      <c r="C16" s="13">
-        <f>B16/1000000</f>
-        <v>0.40815746328341018</v>
+        <f t="shared" si="2"/>
+        <v>454585.37473189813</v>
+      </c>
+      <c r="C16" s="12">
+        <f t="shared" si="0"/>
+        <v>0.45458537473189814</v>
       </c>
       <c r="D16">
         <v>1939.77</v>
@@ -6817,12 +6697,12 @@
         <v>271</v>
       </c>
       <c r="H16">
-        <f t="shared" si="0"/>
-        <v>612236.19492511533</v>
-      </c>
-      <c r="I16" s="13">
-        <f>H16/1000000</f>
-        <v>0.61223619492511527</v>
+        <f t="shared" si="3"/>
+        <v>572440.8422549828</v>
+      </c>
+      <c r="I16" s="12">
+        <f t="shared" si="1"/>
+        <v>0.57244084225498282</v>
       </c>
       <c r="J16">
         <v>1939.77</v>
@@ -6833,12 +6713,12 @@
         <v>238</v>
       </c>
       <c r="B17">
-        <f>SQRT((70541518*640000)/A17)</f>
-        <v>435535.85038982716</v>
-      </c>
-      <c r="C17" s="13">
-        <f>B17/1000000</f>
-        <v>0.43553585038982717</v>
+        <f t="shared" si="2"/>
+        <v>485078.05337167002</v>
+      </c>
+      <c r="C17" s="12">
+        <f t="shared" si="0"/>
+        <v>0.48507805337167004</v>
       </c>
       <c r="D17">
         <v>2078.86</v>
@@ -6847,12 +6727,12 @@
         <v>238</v>
       </c>
       <c r="H17">
-        <f t="shared" si="0"/>
-        <v>653303.77558474068</v>
-      </c>
-      <c r="I17" s="13">
-        <f>H17/1000000</f>
-        <v>0.65330377558474073</v>
+        <f t="shared" si="3"/>
+        <v>610839.03017173265</v>
+      </c>
+      <c r="I17" s="12">
+        <f t="shared" si="1"/>
+        <v>0.61083903017173269</v>
       </c>
       <c r="J17">
         <v>2078.86</v>
@@ -6863,12 +6743,12 @@
         <v>378</v>
       </c>
       <c r="B18">
-        <f>SQRT((70541518*640000)/A18)</f>
-        <v>345594.23373594414</v>
-      </c>
-      <c r="C18" s="13">
-        <f>B18/1000000</f>
-        <v>0.34559423373594417</v>
+        <f t="shared" si="2"/>
+        <v>384905.57782340783</v>
+      </c>
+      <c r="C18" s="12">
+        <f t="shared" si="0"/>
+        <v>0.38490557782340784</v>
       </c>
       <c r="D18">
         <v>1598.71</v>
@@ -6877,12 +6757,12 @@
         <v>378</v>
       </c>
       <c r="H18">
-        <f t="shared" si="0"/>
-        <v>518391.35060391622</v>
-      </c>
-      <c r="I18" s="13">
-        <f>H18/1000000</f>
-        <v>0.51839135060391617</v>
+        <f t="shared" si="3"/>
+        <v>484695.91281466169</v>
+      </c>
+      <c r="I18" s="12">
+        <f t="shared" si="1"/>
+        <v>0.48469591281466168</v>
       </c>
       <c r="J18">
         <v>1598.71</v>
@@ -6893,12 +6773,12 @@
         <v>2648</v>
       </c>
       <c r="B19">
-        <f>SQRT((70541518*640000)/A19)</f>
-        <v>130573.00443202199</v>
-      </c>
-      <c r="C19" s="13">
-        <f>B19/1000000</f>
-        <v>0.13057300443202199</v>
+        <f t="shared" si="2"/>
+        <v>145425.6836861645</v>
+      </c>
+      <c r="C19" s="12">
+        <f t="shared" si="0"/>
+        <v>0.14542568368616449</v>
       </c>
       <c r="D19">
         <v>597.91</v>
@@ -6907,12 +6787,12 @@
         <v>2648</v>
       </c>
       <c r="H19">
-        <f t="shared" si="0"/>
-        <v>195859.50664803298</v>
-      </c>
-      <c r="I19" s="13">
-        <f>H19/1000000</f>
-        <v>0.19585950664803298</v>
+        <f t="shared" si="3"/>
+        <v>183128.63871591084</v>
+      </c>
+      <c r="I19" s="12">
+        <f t="shared" si="1"/>
+        <v>0.18312863871591084</v>
       </c>
       <c r="J19">
         <v>597.91</v>
@@ -6923,12 +6803,12 @@
         <v>539</v>
       </c>
       <c r="B20">
-        <f>SQRT((70541518*640000)/A20)</f>
-        <v>289412.97992644913</v>
-      </c>
-      <c r="C20" s="13">
-        <f>B20/1000000</f>
-        <v>0.28941297992644915</v>
+        <f t="shared" si="2"/>
+        <v>322333.70639308268</v>
+      </c>
+      <c r="C20" s="12">
+        <f t="shared" si="0"/>
+        <v>0.32233370639308268</v>
       </c>
       <c r="D20">
         <v>1257.5899999999999</v>
@@ -6937,12 +6817,12 @@
         <v>539</v>
       </c>
       <c r="H20">
-        <f t="shared" si="0"/>
-        <v>434119.4698896737</v>
-      </c>
-      <c r="I20" s="13">
-        <f>H20/1000000</f>
-        <v>0.4341194698896737</v>
+        <f t="shared" si="3"/>
+        <v>405901.70434684487</v>
+      </c>
+      <c r="I20" s="12">
+        <f t="shared" si="1"/>
+        <v>0.40590170434684486</v>
       </c>
       <c r="J20">
         <v>1257.5899999999999</v>
@@ -6953,12 +6833,12 @@
         <v>241</v>
       </c>
       <c r="B21">
-        <f>SQRT((70541518*640000)/A21)</f>
-        <v>432816.55731055123</v>
-      </c>
-      <c r="C21" s="13">
-        <f>B21/1000000</f>
-        <v>0.43281655731055124</v>
+        <f t="shared" si="2"/>
+        <v>482049.44070462644</v>
+      </c>
+      <c r="C21" s="12">
+        <f t="shared" si="0"/>
+        <v>0.48204944070462646</v>
       </c>
       <c r="D21">
         <v>1988.61</v>
@@ -6967,12 +6847,12 @@
         <v>241</v>
       </c>
       <c r="H21">
-        <f t="shared" si="0"/>
-        <v>649224.83596582687</v>
-      </c>
-      <c r="I21" s="13">
-        <f>H21/1000000</f>
-        <v>0.64922483596582692</v>
+        <f t="shared" si="3"/>
+        <v>607025.22162804811</v>
+      </c>
+      <c r="I21" s="12">
+        <f t="shared" si="1"/>
+        <v>0.60702522162804806</v>
       </c>
       <c r="J21">
         <v>1988.61</v>
@@ -6983,12 +6863,12 @@
         <v>365</v>
       </c>
       <c r="B22">
-        <f>SQRT((70541518*640000)/A22)</f>
-        <v>351694.80667347915</v>
-      </c>
-      <c r="C22" s="13">
-        <f>B22/1000000</f>
-        <v>0.35169480667347913</v>
+        <f t="shared" si="2"/>
+        <v>391700.09093258745</v>
+      </c>
+      <c r="C22" s="12">
+        <f t="shared" si="0"/>
+        <v>0.39170009093258745</v>
       </c>
       <c r="D22">
         <v>1624.26</v>
@@ -6997,12 +6877,12 @@
         <v>365</v>
       </c>
       <c r="H22">
-        <f t="shared" si="0"/>
-        <v>527542.21001021878</v>
-      </c>
-      <c r="I22" s="13">
-        <f>H22/1000000</f>
-        <v>0.52754221001021884</v>
+        <f t="shared" si="3"/>
+        <v>493251.9663595545</v>
+      </c>
+      <c r="I22" s="12">
+        <f t="shared" si="1"/>
+        <v>0.49325196635955448</v>
       </c>
       <c r="J22">
         <v>1624.26</v>
@@ -7013,12 +6893,12 @@
         <v>1598</v>
       </c>
       <c r="B23">
-        <f>SQRT((70541518*640000)/A23)</f>
-        <v>168083.08095292721</v>
-      </c>
-      <c r="C23" s="13">
-        <f>B23/1000000</f>
-        <v>0.16808308095292721</v>
+        <f t="shared" si="2"/>
+        <v>187202.53141132268</v>
+      </c>
+      <c r="C23" s="12">
+        <f t="shared" si="0"/>
+        <v>0.18720253141132268</v>
       </c>
       <c r="D23">
         <v>784.35</v>
@@ -7027,12 +6907,12 @@
         <v>1598</v>
       </c>
       <c r="H23">
-        <f t="shared" si="0"/>
-        <v>252124.62142939083</v>
-      </c>
-      <c r="I23" s="13">
-        <f>H23/1000000</f>
-        <v>0.25212462142939085</v>
+        <f t="shared" si="3"/>
+        <v>235736.52103648044</v>
+      </c>
+      <c r="I23" s="12">
+        <f t="shared" si="1"/>
+        <v>0.23573652103648043</v>
       </c>
       <c r="J23">
         <v>784.35</v>
@@ -7043,12 +6923,12 @@
         <v>1266</v>
       </c>
       <c r="B24">
-        <f>SQRT((70541518*640000)/A24)</f>
-        <v>188840.67090788877</v>
-      </c>
-      <c r="C24" s="13">
-        <f>B24/1000000</f>
-        <v>0.18884067090788875</v>
+        <f t="shared" si="2"/>
+        <v>210321.29722366112</v>
+      </c>
+      <c r="C24" s="12">
+        <f t="shared" si="0"/>
+        <v>0.21032129722366114</v>
       </c>
       <c r="D24">
         <v>868.09</v>
@@ -7057,12 +6937,12 @@
         <v>1266</v>
       </c>
       <c r="H24">
-        <f t="shared" si="0"/>
-        <v>283261.00636183313</v>
-      </c>
-      <c r="I24" s="13">
-        <f>H24/1000000</f>
-        <v>0.28326100636183316</v>
+        <f t="shared" si="3"/>
+        <v>264849.04094831401</v>
+      </c>
+      <c r="I24" s="12">
+        <f t="shared" si="1"/>
+        <v>0.26484904094831402</v>
       </c>
       <c r="J24">
         <v>868.09</v>
@@ -7073,12 +6953,12 @@
         <v>316</v>
       </c>
       <c r="B25">
-        <f>SQRT((70541518*640000)/A25)</f>
-        <v>377980.02224349091</v>
-      </c>
-      <c r="C25" s="13">
-        <f>B25/1000000</f>
-        <v>0.37798002224349092</v>
+        <f t="shared" si="2"/>
+        <v>420975.24977368797</v>
+      </c>
+      <c r="C25" s="12">
+        <f t="shared" si="0"/>
+        <v>0.420975249773688</v>
       </c>
       <c r="D25">
         <v>1747.2</v>
@@ -7087,12 +6967,12 @@
         <v>316</v>
       </c>
       <c r="H25">
-        <f t="shared" si="0"/>
-        <v>566970.03336523636</v>
-      </c>
-      <c r="I25" s="13">
-        <f>H25/1000000</f>
-        <v>0.56697003336523633</v>
+        <f t="shared" si="3"/>
+        <v>530116.98119649594</v>
+      </c>
+      <c r="I25" s="12">
+        <f t="shared" si="1"/>
+        <v>0.53011698119649597</v>
       </c>
       <c r="J25">
         <v>1747.2</v>
@@ -7103,28 +6983,28 @@
         <v>614</v>
       </c>
       <c r="B26">
-        <f>SQRT((70541518*640000)/A26)</f>
-        <v>271161.60884378379</v>
-      </c>
-      <c r="C26" s="13">
-        <f>B26/1000000</f>
-        <v>0.27116160884378376</v>
-      </c>
-      <c r="D26" s="12">
+        <f t="shared" si="2"/>
+        <v>302006.24184976419</v>
+      </c>
+      <c r="C26" s="12">
+        <f t="shared" si="0"/>
+        <v>0.30200624184976421</v>
+      </c>
+      <c r="D26" s="11">
         <v>1257.58</v>
       </c>
       <c r="G26" s="2">
         <v>614</v>
       </c>
       <c r="H26">
-        <f t="shared" si="0"/>
-        <v>406742.41326567566</v>
-      </c>
-      <c r="I26" s="13">
-        <f>H26/1000000</f>
-        <v>0.40674241326567567</v>
-      </c>
-      <c r="J26" s="12">
+        <f t="shared" si="3"/>
+        <v>380304.15640340676</v>
+      </c>
+      <c r="I26" s="12">
+        <f t="shared" si="1"/>
+        <v>0.38030415640340676</v>
+      </c>
+      <c r="J26" s="11">
         <v>1257.58</v>
       </c>
     </row>
@@ -7133,28 +7013,28 @@
         <v>223</v>
       </c>
       <c r="B27">
-        <f>SQRT((70541518*640000)/A27)</f>
-        <v>449945.54488652147</v>
-      </c>
-      <c r="C27" s="13">
-        <f>B27/1000000</f>
-        <v>0.4499455448865215</v>
-      </c>
-      <c r="D27" s="12">
+        <f t="shared" si="2"/>
+        <v>501126.85061736329</v>
+      </c>
+      <c r="C27" s="12">
+        <f t="shared" si="0"/>
+        <v>0.50112685061736328</v>
+      </c>
+      <c r="D27" s="11">
         <v>2112.79</v>
       </c>
       <c r="G27" s="2">
         <v>223</v>
       </c>
       <c r="H27">
-        <f t="shared" si="0"/>
-        <v>674918.31732978218</v>
-      </c>
-      <c r="I27" s="13">
-        <f>H27/1000000</f>
-        <v>0.67491831732978214</v>
-      </c>
-      <c r="J27" s="12">
+        <f t="shared" si="3"/>
+        <v>631048.62670334638</v>
+      </c>
+      <c r="I27" s="12">
+        <f t="shared" si="1"/>
+        <v>0.63104862670334638</v>
+      </c>
+      <c r="J27" s="11">
         <v>2112.79</v>
       </c>
     </row>
@@ -7163,28 +7043,28 @@
         <v>245</v>
       </c>
       <c r="B28">
-        <f>SQRT((70541518*640000)/A28)</f>
-        <v>429268.82077527588</v>
-      </c>
-      <c r="C28" s="13">
-        <f>B28/1000000</f>
-        <v>0.42926882077527589</v>
-      </c>
-      <c r="D28" s="12">
+        <f t="shared" si="2"/>
+        <v>478098.14913846349</v>
+      </c>
+      <c r="C28" s="12">
+        <f t="shared" si="0"/>
+        <v>0.47809814913846349</v>
+      </c>
+      <c r="D28" s="11">
         <v>1870.01</v>
       </c>
       <c r="G28" s="2">
         <v>245</v>
       </c>
       <c r="H28">
-        <f t="shared" si="0"/>
-        <v>643903.23116291384</v>
-      </c>
-      <c r="I28" s="13">
-        <f>H28/1000000</f>
-        <v>0.64390323116291381</v>
-      </c>
-      <c r="J28" s="12">
+        <f t="shared" si="3"/>
+        <v>602049.52113732439</v>
+      </c>
+      <c r="I28" s="12">
+        <f t="shared" si="1"/>
+        <v>0.60204952113732435</v>
+      </c>
+      <c r="J28" s="11">
         <v>1870.01</v>
       </c>
     </row>
@@ -7193,12 +7073,12 @@
         <v>1585</v>
       </c>
       <c r="B29">
-        <f>SQRT((70541518*640000)/A29)</f>
-        <v>168770.9730301376</v>
-      </c>
-      <c r="C29" s="13">
-        <f>B29/1000000</f>
-        <v>0.16877097303013761</v>
+        <f t="shared" si="2"/>
+        <v>187968.67121231576</v>
+      </c>
+      <c r="C29" s="12">
+        <f t="shared" si="0"/>
+        <v>0.18796867121231575</v>
       </c>
       <c r="D29">
         <v>775.75</v>
@@ -7207,12 +7087,12 @@
         <v>1585</v>
       </c>
       <c r="H29">
-        <f t="shared" si="0"/>
-        <v>253156.45954520639</v>
-      </c>
-      <c r="I29" s="13">
-        <f>H29/1000000</f>
-        <v>0.25315645954520638</v>
+        <f t="shared" si="3"/>
+        <v>236701.28967476799</v>
+      </c>
+      <c r="I29" s="12">
+        <f t="shared" si="1"/>
+        <v>0.236701289674768</v>
       </c>
       <c r="J29">
         <v>775.75</v>
@@ -7223,12 +7103,12 @@
         <v>2617</v>
       </c>
       <c r="B30">
-        <f>SQRT((70541518*640000)/A30)</f>
-        <v>131344.08707291682</v>
-      </c>
-      <c r="C30" s="13">
-        <f>B30/1000000</f>
-        <v>0.13134408707291684</v>
+        <f t="shared" si="2"/>
+        <v>146284.47697746113</v>
+      </c>
+      <c r="C30" s="12">
+        <f t="shared" si="0"/>
+        <v>0.14628447697746114</v>
       </c>
       <c r="D30">
         <v>604.33000000000004</v>
@@ -7237,12 +7117,12 @@
         <v>2617</v>
       </c>
       <c r="H30">
-        <f t="shared" si="0"/>
-        <v>197016.13060937525</v>
-      </c>
-      <c r="I30" s="13">
-        <f>H30/1000000</f>
-        <v>0.19701613060937526</v>
+        <f t="shared" si="3"/>
+        <v>184210.08211976587</v>
+      </c>
+      <c r="I30" s="12">
+        <f t="shared" si="1"/>
+        <v>0.18421008211976586</v>
       </c>
       <c r="J30">
         <v>604.33000000000004</v>
@@ -7253,12 +7133,12 @@
         <v>226</v>
       </c>
       <c r="B31">
-        <f>SQRT((70541518*640000)/A31)</f>
-        <v>446949.20382126217</v>
-      </c>
-      <c r="C31" s="13">
-        <f>B31/1000000</f>
-        <v>0.44694920382126219</v>
+        <f t="shared" si="2"/>
+        <v>497789.67575593077</v>
+      </c>
+      <c r="C31" s="12">
+        <f t="shared" si="0"/>
+        <v>0.49778967575593075</v>
       </c>
       <c r="D31">
         <v>1996.23</v>
@@ -7267,12 +7147,12 @@
         <v>226</v>
       </c>
       <c r="H31">
-        <f t="shared" si="0"/>
-        <v>670423.80573189328</v>
-      </c>
-      <c r="I31" s="13">
-        <f>H31/1000000</f>
-        <v>0.67042380573189331</v>
+        <f t="shared" si="3"/>
+        <v>626846.25835932023</v>
+      </c>
+      <c r="I31" s="12">
+        <f t="shared" si="1"/>
+        <v>0.62684625835932017</v>
       </c>
       <c r="J31">
         <v>1996.23</v>
@@ -7283,12 +7163,12 @@
         <v>1637</v>
       </c>
       <c r="B32">
-        <f>SQRT((70541518*640000)/A32)</f>
-        <v>166068.80013271564</v>
-      </c>
-      <c r="C32" s="13">
-        <f>B32/1000000</f>
-        <v>0.16606880013271563</v>
+        <f t="shared" si="2"/>
+        <v>184959.12614781203</v>
+      </c>
+      <c r="C32" s="12">
+        <f t="shared" si="0"/>
+        <v>0.18495912614781204</v>
       </c>
       <c r="D32">
         <v>765.48</v>
@@ -7297,12 +7177,12 @@
         <v>1637</v>
       </c>
       <c r="H32">
-        <f t="shared" si="0"/>
-        <v>249103.20019907344</v>
-      </c>
-      <c r="I32" s="13">
-        <f>H32/1000000</f>
-        <v>0.24910320019907345</v>
+        <f t="shared" si="3"/>
+        <v>232911.49218613369</v>
+      </c>
+      <c r="I32" s="12">
+        <f t="shared" si="1"/>
+        <v>0.23291149218613369</v>
       </c>
       <c r="J32">
         <v>765.48</v>
@@ -7313,12 +7193,12 @@
         <v>222</v>
       </c>
       <c r="B33">
-        <f>SQRT((70541518*640000)/A33)</f>
-        <v>450957.79711052205</v>
-      </c>
-      <c r="C33" s="13">
-        <f>B33/1000000</f>
-        <v>0.45095779711052203</v>
+        <f t="shared" si="2"/>
+        <v>502254.24653184391</v>
+      </c>
+      <c r="C33" s="12">
+        <f t="shared" si="0"/>
+        <v>0.50225424653184392</v>
       </c>
       <c r="D33">
         <v>2174.2199999999998</v>
@@ -7327,12 +7207,12 @@
         <v>222</v>
       </c>
       <c r="H33">
-        <f t="shared" si="0"/>
-        <v>676436.69566578302</v>
-      </c>
-      <c r="I33" s="13">
-        <f>H33/1000000</f>
-        <v>0.67643669566578302</v>
+        <f t="shared" si="3"/>
+        <v>632468.31044750719</v>
+      </c>
+      <c r="I33" s="12">
+        <f t="shared" si="1"/>
+        <v>0.63246831044750718</v>
       </c>
       <c r="J33">
         <v>2174.2199999999998</v>
@@ -7343,12 +7223,12 @@
         <v>1763</v>
       </c>
       <c r="B34">
-        <f>SQRT((70541518*640000)/A34)</f>
-        <v>160024.408801799</v>
-      </c>
-      <c r="C34" s="13">
-        <f>B34/1000000</f>
-        <v>0.160024408801799</v>
+        <f t="shared" si="2"/>
+        <v>178227.18530300364</v>
+      </c>
+      <c r="C34" s="12">
+        <f t="shared" si="0"/>
+        <v>0.17822718530300363</v>
       </c>
       <c r="D34">
         <v>751.62</v>
@@ -7357,12 +7237,12 @@
         <v>1763</v>
       </c>
       <c r="H34">
-        <f t="shared" si="0"/>
-        <v>240036.6132026985</v>
-      </c>
-      <c r="I34" s="13">
-        <f>H34/1000000</f>
-        <v>0.24003661320269851</v>
+        <f t="shared" si="3"/>
+        <v>224434.23334452312</v>
+      </c>
+      <c r="I34" s="12">
+        <f t="shared" si="1"/>
+        <v>0.22443423334452312</v>
       </c>
       <c r="J34">
         <v>751.62</v>
@@ -7373,12 +7253,12 @@
         <v>2026</v>
       </c>
       <c r="B35">
-        <f>SQRT((70541518*640000)/A35)</f>
-        <v>149276.92043094436</v>
-      </c>
-      <c r="C35" s="13">
-        <f>B35/1000000</f>
-        <v>0.14927692043094437</v>
+        <f t="shared" si="2"/>
+        <v>166257.1701299643</v>
+      </c>
+      <c r="C35" s="12">
+        <f t="shared" si="0"/>
+        <v>0.1662571701299643</v>
       </c>
       <c r="D35">
         <v>680.71</v>
@@ -7387,12 +7267,12 @@
         <v>2026</v>
       </c>
       <c r="H35">
-        <f t="shared" si="0"/>
-        <v>223915.38064641657</v>
-      </c>
-      <c r="I35" s="13">
-        <f>H35/1000000</f>
-        <v>0.22391538064641656</v>
+        <f t="shared" si="3"/>
+        <v>209360.88090439947</v>
+      </c>
+      <c r="I35" s="12">
+        <f t="shared" si="1"/>
+        <v>0.20936088090439947</v>
       </c>
       <c r="J35">
         <v>680.71</v>
@@ -7403,12 +7283,12 @@
         <v>361</v>
       </c>
       <c r="B36">
-        <f>SQRT((70541518*640000)/A36)</f>
-        <v>353637.88669067557</v>
-      </c>
-      <c r="C36" s="13">
-        <f>B36/1000000</f>
-        <v>0.35363788669067558</v>
+        <f t="shared" si="2"/>
+        <v>393864.19630173995</v>
+      </c>
+      <c r="C36" s="12">
+        <f t="shared" si="0"/>
+        <v>0.39386419630173997</v>
       </c>
       <c r="D36">
         <v>1678.67</v>
@@ -7417,12 +7297,12 @@
         <v>361</v>
       </c>
       <c r="H36">
-        <f t="shared" si="0"/>
-        <v>530456.83003601339</v>
-      </c>
-      <c r="I36" s="13">
-        <f>H36/1000000</f>
-        <v>0.5304568300360134</v>
+        <f t="shared" si="3"/>
+        <v>495977.13608367246</v>
+      </c>
+      <c r="I36" s="12">
+        <f t="shared" si="1"/>
+        <v>0.49597713608367244</v>
       </c>
       <c r="J36">
         <v>1678.67</v>
@@ -7433,12 +7313,12 @@
         <v>954</v>
       </c>
       <c r="B37">
-        <f>SQRT((70541518*640000)/A37)</f>
-        <v>217539.53716648376</v>
-      </c>
-      <c r="C37" s="13">
-        <f>B37/1000000</f>
-        <v>0.21753953716648375</v>
+        <f t="shared" si="2"/>
+        <v>242284.65951917128</v>
+      </c>
+      <c r="C37" s="12">
+        <f t="shared" si="0"/>
+        <v>0.24228465951917127</v>
       </c>
       <c r="D37">
         <v>1004.24</v>
@@ -7447,12 +7327,12 @@
         <v>954</v>
       </c>
       <c r="H37">
-        <f t="shared" si="0"/>
-        <v>326309.30574972561</v>
-      </c>
-      <c r="I37" s="13">
-        <f>H37/1000000</f>
-        <v>0.32630930574972561</v>
+        <f t="shared" si="3"/>
+        <v>305099.20087599347</v>
+      </c>
+      <c r="I37" s="12">
+        <f t="shared" si="1"/>
+        <v>0.30509920087599346</v>
       </c>
       <c r="J37">
         <v>1004.24</v>
@@ -7463,23 +7343,23 @@
         <v>70541518</v>
       </c>
       <c r="B38">
-        <f>SQRT((70541518*640000)/A38)</f>
-        <v>800</v>
-      </c>
-      <c r="C38" s="13">
-        <f>B38/1000000</f>
-        <v>8.0000000000000004E-4</v>
+        <f t="shared" si="2"/>
+        <v>891</v>
+      </c>
+      <c r="C38" s="12">
+        <f t="shared" si="0"/>
+        <v>8.9099999999999997E-4</v>
       </c>
       <c r="G38" s="2">
         <v>70541518</v>
       </c>
       <c r="H38">
-        <f t="shared" si="0"/>
-        <v>1200</v>
-      </c>
-      <c r="I38" s="13">
-        <f>H38/1000000</f>
-        <v>1.1999999999999999E-3</v>
+        <f t="shared" si="3"/>
+        <v>1122</v>
+      </c>
+      <c r="I38" s="12">
+        <f t="shared" si="1"/>
+        <v>1.122E-3</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -7487,12 +7367,12 @@
         <v>2175</v>
       </c>
       <c r="B39">
-        <f>SQRT((70541518*640000)/A39)</f>
-        <v>144073.05222355601</v>
-      </c>
-      <c r="C39" s="13">
-        <f>B39/1000000</f>
-        <v>0.14407305222355601</v>
+        <f t="shared" si="2"/>
+        <v>160461.36191398549</v>
+      </c>
+      <c r="C39" s="12">
+        <f t="shared" si="0"/>
+        <v>0.1604613619139855</v>
       </c>
       <c r="D39">
         <v>657.99</v>
@@ -7501,12 +7381,12 @@
         <v>2175</v>
       </c>
       <c r="H39">
-        <f t="shared" si="0"/>
-        <v>216109.57833533399</v>
-      </c>
-      <c r="I39" s="13">
-        <f>H39/1000000</f>
-        <v>0.21610957833533401</v>
+        <f t="shared" si="3"/>
+        <v>202062.45574353728</v>
+      </c>
+      <c r="I39" s="12">
+        <f t="shared" si="1"/>
+        <v>0.20206245574353729</v>
       </c>
       <c r="J39">
         <v>657.99</v>
@@ -7517,23 +7397,23 @@
         <v>22486114</v>
       </c>
       <c r="B40">
-        <f>SQRT((70541518*640000)/A40)</f>
-        <v>1416.9521466634264</v>
-      </c>
-      <c r="C40" s="13">
-        <f>B40/1000000</f>
-        <v>1.4169521466634264E-3</v>
+        <f t="shared" si="2"/>
+        <v>1578.1304533463913</v>
+      </c>
+      <c r="C40" s="12">
+        <f t="shared" si="0"/>
+        <v>1.5781304533463913E-3</v>
       </c>
       <c r="G40" s="2">
         <v>22486114</v>
       </c>
       <c r="H40">
-        <f t="shared" si="0"/>
-        <v>2125.4282199951399</v>
-      </c>
-      <c r="I40" s="13">
-        <f>H40/1000000</f>
-        <v>2.1254282199951401E-3</v>
+        <f t="shared" si="3"/>
+        <v>1987.2753856954557</v>
+      </c>
+      <c r="I40" s="12">
+        <f t="shared" si="1"/>
+        <v>1.9872753856954558E-3</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -7541,12 +7421,12 @@
         <v>38953</v>
       </c>
       <c r="B41">
-        <f>SQRT((70541518*640000)/A41)</f>
-        <v>34044.10584691308</v>
-      </c>
-      <c r="C41" s="13">
-        <f>B41/1000000</f>
-        <v>3.4044105846913079E-2</v>
+        <f t="shared" si="2"/>
+        <v>37916.622886999445</v>
+      </c>
+      <c r="C41" s="12">
+        <f t="shared" si="0"/>
+        <v>3.7916622886999443E-2</v>
       </c>
       <c r="D41">
         <v>158.31</v>
@@ -7555,12 +7435,12 @@
         <v>38953</v>
       </c>
       <c r="H41">
-        <f t="shared" si="0"/>
-        <v>51066.158770369628</v>
-      </c>
-      <c r="I41" s="13">
-        <f>H41/1000000</f>
-        <v>5.106615877036963E-2</v>
+        <f t="shared" si="3"/>
+        <v>47746.8584502956</v>
+      </c>
+      <c r="I41" s="12">
+        <f t="shared" si="1"/>
+        <v>4.7746858450295603E-2</v>
       </c>
       <c r="J41">
         <v>158.31</v>
@@ -7571,12 +7451,12 @@
         <v>372</v>
       </c>
       <c r="B42">
-        <f>SQRT((70541518*640000)/A42)</f>
-        <v>348370.13562854304</v>
-      </c>
-      <c r="C42" s="13">
-        <f>B42/1000000</f>
-        <v>0.34837013562854302</v>
+        <f t="shared" si="2"/>
+        <v>387997.23855628981</v>
+      </c>
+      <c r="C42" s="12">
+        <f t="shared" si="0"/>
+        <v>0.38799723855628981</v>
       </c>
       <c r="D42">
         <v>1587.27</v>
@@ -7585,12 +7465,12 @@
         <v>372</v>
       </c>
       <c r="H42">
-        <f t="shared" si="0"/>
-        <v>522555.20344281453</v>
-      </c>
-      <c r="I42" s="13">
-        <f>H42/1000000</f>
-        <v>0.52255520344281448</v>
+        <f t="shared" si="3"/>
+        <v>488589.11521903164</v>
+      </c>
+      <c r="I42" s="12">
+        <f t="shared" si="1"/>
+        <v>0.48858911521903164</v>
       </c>
       <c r="J42">
         <v>1587.27</v>
@@ -7601,12 +7481,12 @@
         <v>671</v>
       </c>
       <c r="B43">
-        <f>SQRT((70541518*640000)/A43)</f>
-        <v>259388.74473305079</v>
-      </c>
-      <c r="C43" s="13">
-        <f>B43/1000000</f>
-        <v>0.25938874473305079</v>
+        <f t="shared" si="2"/>
+        <v>288894.21444643533</v>
+      </c>
+      <c r="C43" s="12">
+        <f t="shared" si="0"/>
+        <v>0.28889421444643532</v>
       </c>
       <c r="D43">
         <v>1198.6099999999999</v>
@@ -7615,12 +7495,12 @@
         <v>671</v>
       </c>
       <c r="H43">
-        <f t="shared" si="0"/>
-        <v>389083.11709957616</v>
-      </c>
-      <c r="I43" s="13">
-        <f>H43/1000000</f>
-        <v>0.38908311709957616</v>
+        <f t="shared" si="3"/>
+        <v>363792.71448810375</v>
+      </c>
+      <c r="I43" s="12">
+        <f t="shared" si="1"/>
+        <v>0.36379271448810374</v>
       </c>
       <c r="J43">
         <v>1198.6099999999999</v>
@@ -7631,12 +7511,12 @@
         <v>4293</v>
       </c>
       <c r="B44">
-        <f>SQRT((70541518*640000)/A44)</f>
-        <v>102549.1212710691</v>
-      </c>
-      <c r="C44" s="13">
-        <f>B44/1000000</f>
-        <v>0.1025491212710691</v>
+        <f t="shared" si="2"/>
+        <v>114214.08381565321</v>
+      </c>
+      <c r="C44" s="12">
+        <f t="shared" si="0"/>
+        <v>0.11421408381565321</v>
       </c>
       <c r="D44">
         <v>464</v>
@@ -7645,12 +7525,12 @@
         <v>4293</v>
       </c>
       <c r="H44">
-        <f t="shared" si="0"/>
-        <v>153823.68190660366</v>
-      </c>
-      <c r="I44" s="13">
-        <f>H44/1000000</f>
-        <v>0.15382368190660364</v>
+        <f t="shared" si="3"/>
+        <v>143825.14258267442</v>
+      </c>
+      <c r="I44" s="12">
+        <f t="shared" si="1"/>
+        <v>0.14382514258267443</v>
       </c>
       <c r="J44">
         <v>464</v>
@@ -7661,12 +7541,12 @@
         <v>327</v>
       </c>
       <c r="B45">
-        <f>SQRT((70541518*640000)/A45)</f>
-        <v>371568.1765801463</v>
-      </c>
-      <c r="C45" s="13">
-        <f>B45/1000000</f>
-        <v>0.37156817658014629</v>
+        <f t="shared" si="2"/>
+        <v>413834.05666613794</v>
+      </c>
+      <c r="C45" s="12">
+        <f t="shared" si="0"/>
+        <v>0.41383405666613793</v>
       </c>
       <c r="D45">
         <v>1752.85</v>
@@ -7675,12 +7555,12 @@
         <v>327</v>
       </c>
       <c r="H45">
-        <f t="shared" si="0"/>
-        <v>557352.26487021951</v>
-      </c>
-      <c r="I45" s="13">
-        <f>H45/1000000</f>
-        <v>0.55735226487021949</v>
+        <f t="shared" si="3"/>
+        <v>521124.36765365524</v>
+      </c>
+      <c r="I45" s="12">
+        <f t="shared" si="1"/>
+        <v>0.52112436765365522</v>
       </c>
       <c r="J45">
         <v>1752.85</v>
